--- a/Twitter_Data/Twitter_Data_Chinese/en.Twitter_Covid-19_Lockdown_5000_chinese.xlsx
+++ b/Twitter_Data/Twitter_Data_Chinese/en.Twitter_Covid-19_Lockdown_5000_chinese.xlsx
@@ -424,9 +424,9 @@
   <si>
     <t>RT @Amberle68664577: The CCP is in a hurry to decouple and will close its academic database to foreign countries on April 1. Recently, it was reported that vaccination and lockdown data during the pandemic is also being systematically deleted. Why is that? Are you afraid of anything? 🧐 _x000D_
  _x000D_
-【further #脱钩？ Why did the CCP's academic database close its doors to foreign scholars _x000D_
- _x000D_ the
- biggest #学术数据库 of the Communist Party of China recently left the country with data</t>
+ [Further decoupling? Why did the CCP's academic database close its doors to foreign scholars _x000D_
+ _x000D_ The
+ CCP's largest academic database recently went abroad with data...</t>
   </si>
   <si>
     <t>['1641541987978362881']</t>
@@ -437,9 +437,9 @@
   <si>
     <t xml:space="preserve">The CCP is in a hurry to decouple and will close its academic database to foreign countries on April 1. Recently, it was reported that vaccination and lockdown data during the pandemic is also being systematically deleted. Why is that? Are you afraid of anything? 🧐 _x000D_
  _x000D_
-【further #脱钩？ Why did the CCP's academic database close its doors to foreign scholars _x000D_
- _x000D_ the
- biggest #学术数据库 of the Communist Party of China recently left the country with data</t>
+ [Further decoupling? Why did the CCP's academic database close its doors to foreign scholars _x000D_
+ _x000D_ The
+ CCP's largest academic database recently went abroad with data...</t>
   </si>
   <si>
     <t>2023-03-30T20:19:27 .000Z</t>
@@ -481,9 +481,9 @@
   <si>
     <t>The CCP is in a hurry to decouple and will close its academic database to foreign countries on April 1. Recently, it was reported that vaccination and lockdown data during the pandemic is also being systematically deleted. Why is that? Are you afraid of anything? 🧐 _x000D_
  _x000D_
-【further #脱钩？ Why did the CCP's academic database close its doors to foreign academics_x000D_
- _x000D_ The
- biggest #学术数据库 in the Communist Party of China recently left the country with data new... _x000D_
+ [Further decoupling? Why did the CCP's academic database close its doors
+ to foreign academics_x000D_
+ _x000D_ The CCP's largest academic database recently went abroad with new data... _x000D_
  https://t.co/Y5SYP5urwV _x000D_
  https://t.co/mgCSWzw8u9</t>
   </si>
@@ -496,9 +496,9 @@
   <si>
     <t>The CCP is in a hurry to decouple and will close its academic database to foreign countries on April 1. Recently, it was reported that vaccination and lockdown data during the pandemic is also being systematically deleted. Why is that? Are you afraid of anything? 🧐 _x000D_
  _x000D_
-【further #脱钩？ Why did the CCP's academic database close its doors to foreign academics_x000D_
- _x000D_ The
- biggest #学术数据库 in the Communist Party of China recently left the country with data new... _x000D_
+ [Further decoupling? Why did the CCP's academic database close its doors
+ to foreign academics_x000D_
+ _x000D_ The CCP's largest academic database recently went abroad with new data... _x000D_
  https://t.co/Y5SYP5urwV _x000D_
  https://t.co/mgCSWzw8u9</t>
   </si>
@@ -610,7 +610,7 @@
     <t>2023-03-30T14:47:09 .000Z</t>
   </si>
   <si>
-    <t>@jack123what It's been 21 years _x000D_, the
+    <t>@jack123what It's been 21 years _x000D_ the
  epidemic was relatively severe, was the city closed down, there was still nucleic acid or something _x000D_ at the
  time it was called I saw x</t>
   </si>
@@ -621,7 +621,7 @@
     <t>61yhgtyf_87</t>
   </si>
   <si>
-    <t>@jack123what It's been 21 years _x000D_, the
+    <t>@jack123what It's been 21 years _x000D_ the
  epidemic was relatively severe, was the city closed down, there was still nucleic acid or something _x000D_ at the
  time it was called I saw x</t>
   </si>
@@ -629,7 +629,7 @@
     <t>2023-03-30T14:37:52 .000Z</t>
   </si>
   <si>
-    <t>#苹果撤离后果很严重 Foxconn is evacuating China on a large scale: Zhengzhou, Chengdu, Shenzhen, etc. Foxconn is Apple's foundry: the mainland produces and exports to the US, and the world creates a lot of foreign exchange+taxes and employment for China and G - Guo Taiming said: Who is afraid of who? The withdrawal of foreign companies from China began the 2018 trade war, and the pandemic lockdown policy forced the world to restructure the industry-supply chain... The Russian-Ukrainian war and the bad relations between China and the US caused order fears to shift: the economic consequences were serious. https://t.co/N9OghsKBAw</t>
+    <t xml:space="preserve">The consequences of Apple's withdrawal are serious, and Foxconn is evacuating China on a large scale: Zhengzhou, Chengdu, Shenzhen, etc. Foxconn is Apple's foundry: the mainland produces and exports to the US, and the world creates a lot of foreign exchange+taxes and employment for China and G - Guo Taiming said: Who is afraid of who? The withdrawal of foreign companies from China began the 2018 trade war, and the pandemic lockdown policy forced the world to restructure the industry-supply chain... The Russian-Ukrainian war and the bad relations between China and the US caused order fears to shift: the economic consequences were serious. https://t.co/N9OghsKBAw</t>
   </si>
   <si>
     <t>['1641449669317517315']</t>
@@ -638,7 +638,7 @@
     <t>Mikeyehui</t>
   </si>
   <si>
-    <t>#苹果撤离后果很严重 Foxconn is evacuating China on a large scale: Zhengzhou, Chengdu, Shenzhen, etc. Foxconn is Apple's foundry: the mainland produces and exports to the US, and the world creates a lot of foreign exchange+taxes and employment for China and G - Guo Taiming said: Who is afraid of who? The withdrawal of foreign companies from China began the 2018 trade war, and the pandemic lockdown policy forced the world to restructure the industry-supply chain... The Russian-Ukrainian war and the bad relations between China and the US caused order fears to shift: the economic consequences were serious. https://t.co/N9OghsKBAw</t>
+    <t xml:space="preserve">The consequences of Apple's withdrawal are serious, and Foxconn is evacuating China on a large scale: Zhengzhou, Chengdu, Shenzhen, etc. Foxconn is Apple's foundry: the mainland produces and exports to the US, and the world creates a lot of foreign exchange+taxes and employment for China and G - Guo Taiming said: Who is afraid of who? The withdrawal of foreign companies from China began the 2018 trade war, and the pandemic lockdown policy forced the world to restructure the industry-supply chain... The Russian-Ukrainian war and the bad relations between China and the US caused order fears to shift: the economic consequences were serious. https://t.co/N9OghsKBAw</t>
   </si>
   <si>
     <t>2023-03-30T14:21:41 .000Z</t>
@@ -750,7 +750,7 @@
     <t>2023-03-30T10:29:34 .000Z</t>
   </si>
   <si>
-    <t>@RFA_Chinese cursed him all the time again, and I still think he said it very well. _x000D_
+    <t>@RFA_Chinese cursed him again, and I still think he said it very well. _x000D_
  is talking about prevention and control in the early stages of the epidemic. It doesn't say that subsequent human disasters are good, nor is it about the origin of the epidemic. An initial prevention and control perspective is indeed immediate. Although concealed in the early stages, the closure of the city was still relatively fast, and I'm afraid it will be difficult for other countries to achieve it. _x000D_
  Taichung should now look more for common ground and cooperation. Avoiding war while maintaining Taiwan's independence is the greatest task. Criticizing the CCP is not</t>
   </si>
@@ -761,7 +761,7 @@
     <t>Fmds__</t>
   </si>
   <si>
-    <t>@RFA_Chinese cursed him all the time again, and I still think he said it very well. _x000D_
+    <t>@RFA_Chinese cursed him again, and I still think he said it very well. _x000D_
  is talking about prevention and control in the early stages of the epidemic. It doesn't say that subsequent human disasters are good, nor is it about the origin of the epidemic. An initial prevention and control perspective is indeed immediate. Although concealed in the early stages, the closure of the city was still relatively fast, and I'm afraid it will be difficult for other countries to achieve it. _x000D_
  Taichung should now look more for common ground and cooperation. Avoiding war while maintaining Taiwan's independence is the greatest task. Criticizing the CCP is not</t>
   </si>
@@ -845,9 +845,9 @@
     <t>2023-03-30T10:16:23 .000Z</t>
   </si>
   <si>
-    <t>RT @realweizhen: The collapse of Chinese companies has caused the trend of unemployment to fall into the streets and is also being charged_x000D_
+    <t>RT @realweizhen: The collapse of Chinese companies has caused a trend of unemployment falling into the streets and is also being charged_x000D_
  _x000D_ the
- CCP maintained a zero-lockdown during the three-year epidemic period to revive China's economy. Many companies have gone out of business. The number of unemployed people in major cities has increased dramatically. There are more and more #流落街頭 people, and in some places it has even been reported that “sleeping bridge fees” are being charged. https://t.co/AHm9kdl3XO</t>
+ CCP maintained a zero-lockdown during the three-year epidemic period, reinventing the Chinese economy. Many companies have gone out of business. The number of unemployed people in major cities has increased dramatically, more and more people are living on the streets, and it has been reported that “sleeping bridge fees” have even been charged in some places. https://t.co/AHm9kdl3XO</t>
   </si>
   <si>
     <t>['1641383864764633090']</t>
@@ -858,7 +858,7 @@
   <si>
     <t xml:space="preserve">The collapse of Chinese companies caused the trend of unemployment to fall to the streets and was also charged_x000D_
  _x000D_ _x000D_ the
- CCP maintained a zero-lockdown during the three-year epidemic period, revived the Chinese economy. Many companies went out of business. The number of unemployed people in major cities increased dramatically. There were more and more #流落街頭 people, and some places were even being charged “sleeping bridge fees.” https://t.co/AHm9kdl3XO</t>
+ CCP maintained a zero-lockdown during the three-year epidemic period, revived the Chinese economy. Many companies went out of business. The number of unemployed people in major cities increased dramatically, more and more people were living on the streets, and it was even reported in some places that “sleeping bridge fees” were being charged. https://t.co/AHm9kdl3XO</t>
   </si>
   <si>
     <t>2023-03-30T10:15:12 .000Z</t>
@@ -938,7 +938,7 @@
   <si>
     <t>The collapse of Chinese companies caused the trend of unemployment to fall to the streets and was also charged_x000D_
  _x000D_ _x000D_ the
- CCP maintained a zero-lockdown during the three-year epidemic period, revived the Chinese economy. Many companies went out of business. The number of unemployed people in major cities increased dramatically. There were more and more #流落街頭 people, and some places were even being charged “sleeping bridge fees.” https://t.co/AHm9kdl3XO</t>
+ CCP maintained a zero-lockdown during the three-year epidemic period, revived the Chinese economy. Many companies went out of business. The number of unemployed people in major cities increased dramatically, more and more people were living on the streets, and it was even reported in some places that “sleeping bridge fees” were being charged. https://t.co/AHm9kdl3XO</t>
   </si>
   <si>
     <t>['1641381448031817729']</t>
@@ -949,7 +949,7 @@
   <si>
     <t>The collapse of Chinese companies caused the trend of unemployment to fall to the streets and was also charged_x000D_
  _x000D_ _x000D_ the
- CCP maintained a zero-lockdown during the three-year epidemic period, revived the Chinese economy. Many companies went out of business. The number of unemployed people in major cities increased dramatically. There were more and more #流落街頭 people, and some places were even being charged “sleeping bridge fees.” https://t.co/AHm9kdl3XO</t>
+ CCP maintained a zero-lockdown during the three-year epidemic period, revived the Chinese economy. Many companies went out of business. The number of unemployed people in major cities increased dramatically, more and more people were living on the streets, and it was even reported in some places that “sleeping bridge fees” were being charged. https://t.co/AHm9kdl3XO</t>
   </si>
   <si>
     <t>2023-03-30T09:50:23 .000Z</t>
@@ -3180,7 +3180,7 @@
     <t>2023-03-28T09:26:26 .000Z</t>
   </si>
   <si>
-    <t>@Martina11968266 @hanwudiliuche2 @MoQiong_Black @LimuyTayal @JoeHsuTaiwan @skyx19433 @pqio0819 @aa159aa753 @Santiago303050 @TjrtgSgerh @CatMaid_Love_00 @dieghost16 @JunPatrol @MetaluciferY @WeAreTaiwanNo_1 @yumio99 @Bruce08101 @Peter61397 @FTD03041005 @Michaelhsinchu @Adniye33226758 @duive3 @greentea8266 @Destiny78098243 @sadi3540 @Cherry999_lin @AceAlbert2022 @AnnnnnaAnnnnnna @Eulalia31345863 @reborn_captain @HirohitoNSJP @angaventure @zimmer724102 @mzdgnm1893 @yumiosusu @a_o_p_477 @shadowi94764835 @momoxiaoyu07 @cndc12734422 @yfi68878926 @andyHo86601579 @xiaoxuemeimei22 @aa_009876 @LaqiTayalgo @huskypuppies111 @FrancesWesley14 @ice31004 @paratrooperMk02 @BoXiLai6324 @shagm888 the April sounds of the closure of Shanghai are you exaggerating Xi Jinping? Are you exaggerating Xi Jinping over the three years of the pneumonia epidemic and the secondary disaster where you have not been able to see a doctor? Don't say there were no secondary disasters~</t>
+    <t>@Martina11968266 @hanwudiliuche2 @MoQiong_Black @LimuyTayal @JoeHsuTaiwan @skyx19433 @pqio0819 @aa159aa753 @Santiago303050 @TjrtgSgerh @CatMaid_Love_00 @dieghost16 @JunPatrol @MetaluciferY @WeAreTaiwanNo_1 @yumio99 @Bruce08101 @Peter61397 @FTD03041005 @Michaelhsinchu @Adniye33226758 @duive3 @greentea8266 @Destiny78098243 @sadi3540 @Cherry999_lin @AceAlbert2022 @AnnnnnaAnnnnnna @Eulalia31345863 @reborn_captain @HirohitoNSJP @angaventure @zimmer724102 @mzdgnm1893 @yumiosusu @a_o_p_477 @shadowi94764835 @momoxiaoyu07 @cndc12734422 @yfi68878926 @andyHo86601579 @xiaoxuemeimei22 @aa_009876 @LaqiTayalgo @huskypuppies111 @FrancesWesley14 @ice31004 @paratrooperMk02 @BoXiLai6324 @shagm888 the April sounds of the closure of Shanghai are you exaggerating Xi Jinping? Are you exaggerating Xi Jinping over the three years of the pneumonia epidemic and the secondary disaster where you can't see a doctor? Don't say there were no secondary disasters~</t>
   </si>
   <si>
     <t>['1640646517693485061']</t>
@@ -3189,7 +3189,7 @@
     <t>StarsAlke84446</t>
   </si>
   <si>
-    <t>@Martina11968266 @hanwudiliuche2 @MoQiong_Black @LimuyTayal @JoeHsuTaiwan @skyx19433 @pqio0819 @aa159aa753 @Santiago303050 @TjrtgSgerh @CatMaid_Love_00 @dieghost16 @JunPatrol @MetaluciferY @WeAreTaiwanNo_1 @yumio99 @Bruce08101 @Peter61397 @FTD03041005 @Michaelhsinchu @Adniye33226758 @duive3 @greentea8266 @Destiny78098243 @sadi3540 @Cherry999_lin @AceAlbert2022 @AnnnnnaAnnnnnna @Eulalia31345863 @reborn_captain @HirohitoNSJP @angaventure @zimmer724102 @mzdgnm1893 @yumiosusu @a_o_p_477 @shadowi94764835 @momoxiaoyu07 @cndc12734422 @yfi68878926 @andyHo86601579 @xiaoxuemeimei22 @aa_009876 @LaqiTayalgo @huskypuppies111 @FrancesWesley14 @ice31004 @paratrooperMk02 @BoXiLai6324 @shagm888 the April sounds of the closure of Shanghai are you exaggerating Xi Jinping? Are you exaggerating Xi Jinping over the three years of the pneumonia epidemic and the secondary disaster where you have not been able to see a doctor? Don't say there were no secondary disasters~</t>
+    <t>@Martina11968266 @hanwudiliuche2 @MoQiong_Black @LimuyTayal @JoeHsuTaiwan @skyx19433 @pqio0819 @aa159aa753 @Santiago303050 @TjrtgSgerh @CatMaid_Love_00 @dieghost16 @JunPatrol @MetaluciferY @WeAreTaiwanNo_1 @yumio99 @Bruce08101 @Peter61397 @FTD03041005 @Michaelhsinchu @Adniye33226758 @duive3 @greentea8266 @Destiny78098243 @sadi3540 @Cherry999_lin @AceAlbert2022 @AnnnnnaAnnnnnna @Eulalia31345863 @reborn_captain @HirohitoNSJP @angaventure @zimmer724102 @mzdgnm1893 @yumiosusu @a_o_p_477 @shadowi94764835 @momoxiaoyu07 @cndc12734422 @yfi68878926 @andyHo86601579 @xiaoxuemeimei22 @aa_009876 @LaqiTayalgo @huskypuppies111 @FrancesWesley14 @ice31004 @paratrooperMk02 @BoXiLai6324 @shagm888 the April sounds of the closure of Shanghai are you exaggerating Xi Jinping? Are you exaggerating Xi Jinping over the three years of the pneumonia epidemic and the secondary disaster where you can't see a doctor? Don't say there were no secondary disasters~</t>
   </si>
   <si>
     <t>2023-03-28T03:03:48 .000Z</t>
@@ -3222,7 +3222,7 @@
     <t>2023-03-28T02:43:39 .000Z</t>
   </si>
   <si>
-    <t>RT @HARVEST68646224: [Eat curry when you have a headache] _x000D_ In the
+    <t>RT @HARVEST68646224: [Eat curry when you're sick] _x000D_ In the
  spring of that year, the epidemic suddenly spread rapidly in Taiwan, and for the first time, I experienced the taste of a self-imposed city closure. Avoiding crowds, without leaving the house, and relying on small farmers to order fresh fruits and vegetables, a family of three spent many weeks living in a mountain forest shelter. At the suggestion of a friend, I tried selling lunch boxes in the community for the first time _x000D_
  https://t.co...</t>
   </si>
@@ -3279,12 +3279,12 @@
   <si>
     <t>RT @DianWuxiaohao: 1.5w fan benefits 🌈 _x000D_
  after the epidemic closed down
- and the school closed for a semester _x000D_ the
+ and the school closed down for a semester _x000D_ the
  first time I banged 😭 _x000D_ with my baby brother 🥰 _x000D_
- when I first came in, my baby brother all said I was quite tight _x000D_
- after the test
- was confirmed to be safe #无套 _x000D_ by the baby brother directly by the
- baby brother #无套内射 _x000D_ It's also been holding back for a long time and not being knocked away_x000D_
+ when I first came
+ in, my baby brother all said I was quite tight _x000D_ I had
+ no condom after the test confirmed safety _x000D_ was directly injected without a condom by the
+ baby brother _x000D_ It's also been holding back for a long time and not being knocked away_x000D_
  finally pulled it out, and it went straight to the gobling_x000D_
  retweet it to praise me...</t>
   </si>
@@ -3296,15 +3296,15 @@
   </si>
   <si>
     <t xml:space="preserve">1.5w fan benefits 🌈 _x000D_
- after the pandemic closed down the city for a semester _x000D_
+ after the epidemic closed down the city for a semester _x000D_
  first banging 😭 _x000D_
  and my baby brother 🥰 _x000D_
- when they first came in, the baby brothers all said I was quite tight _x000D_ after
- confirming safety after the test was confirmed #无套 _x000D_
- was directly hit by the baby brother #无套内射 _x000D_ the
- baby brother was also held back for a long time and hasn't been smacked_x000D_ 
-Finally, I pulled it out, and a goblin played it directly _x000D_ and
- retweeted it like me...</t>
+ when I first came
+ in, the baby brother all said I was quite tight _x000D_ had
+ no condom after the test confirmed safety _x000D_ was directly injected without a condom by the
+ baby brother _x000D_ the baby brother was also held back for a long time. 
+Finally,
+ I pulled it out, and it went directly to the goblin _x000D_ and retweeted it to give my thumbs a thumbs up...</t>
   </si>
   <si>
     <t>2023-03-27T21:36:19 .000Z</t>
@@ -3457,7 +3457,7 @@
     <t>Pureheartlove53</t>
   </si>
   <si>
-    <t xml:space="preserve">In the era without mobile phones, it's hard to imagine that every person now has a portable smart phone that combines various functions such as a network, computer, camera, video recorder, music player, flashlight, etc. _x000D_
+    <t xml:space="preserve">In the era without mobile phones, it's hard to imagine that everyone now has a portable smart phone that combines various functions such as a network, computer, camera, video recorder, music player, flashlight, etc. _x000D_
  _x000D_ The outbreak of the
  Wuhan pneumonia, CCP virus, and CCP pneumonia (novel coronavirus) epidemic surprised people to discover that China's Communist Party can treat people so harshly...</t>
   </si>
@@ -3531,7 +3531,7 @@
     <t>jl7w6ntffisb7ay</t>
   </si>
   <si>
-    <t xml:space="preserve">In the era without mobile phones, it's hard to imagine that every person now has a portable smart phone that combines various functions such as a network, computer, camera, video recorder, music player, flashlight, etc. _x000D_
+    <t xml:space="preserve">In the era without mobile phones, it's hard to imagine that everyone now has a portable smart phone that combines various functions such as a network, computer, camera, video recorder, music player, flashlight, etc. _x000D_
  _x000D_ The outbreak of the
  Wuhan pneumonia, CCP virus, and CCP pneumonia (novel coronavirus) epidemic surprised people to discover that China's Communist Party can treat people so harshly...</t>
   </si>
@@ -3545,7 +3545,7 @@
  🔸 The CCP's evil screening mechanism_x000D_
  started with family planning _x000D_ now the blockade of the city, starvation and brainwashing by the epidemic, is continuously screened _x000D_ the
  small number of copper walls and iron walls screened out to maintain the lowest cost of social management and operation_x000D_ the
- North Korean model does not starve to death It's OK not to freeze to death_x000D_
+ North Korean model is not starving to death It's OK not to freeze to death_x000D_
  Brainwashing all suffering was caused by the American Empire https://t.co/FwhgNnpOaT https://t.co/DFfXBckV8V</t>
   </si>
   <si>
@@ -3561,7 +3561,7 @@
  🔸 The CCP's evil screening mechanism_x000D_
  started with family planning _x000D_ now the blockade of the city, starvation and brainwashing by the epidemic, is continuously screened _x000D_ the
  small number of copper walls and iron walls screened out to maintain the lowest cost of social management and operation_x000D_ the
- North Korean model does not starve to death It's OK not to freeze to death_x000D_
+ North Korean model is not starving to death It's OK not to freeze to death_x000D_
  Brainwashing all suffering was caused by the American Empire https://t.co/FwhgNnpOaT https://t.co/DFfXBckV8V</t>
   </si>
   <si>
@@ -3587,7 +3587,7 @@
     <t>2023-03-26T15:06:30 .000Z</t>
   </si>
   <si>
-    <t>@hjh191 @NiKiTa_32156 😅 If there's no consensus on the CCP committing evil, There's no need to say more. There are too many and complicated entries, so please review them yourself. The CCP infringes on various rights of the Chinese people. Brutal crackdown on opponents. The war is rampant, yet benefits are low. The one-size-fits-all closure of the city did not allow people to live a normal life. They despise human lives, despise science, and engage in politics. His evil is not in making wrong decisions, but in measuring something on a scale in his decision-making process, if you... https://t.co/im62cuKoTh</t>
+    <t>@hjh191 @NiKiTa_32156 😅 If there's no consensus that the CCP is committing evil, There's no need to say more. There are too many and complicated entries, so please review them yourself. The CCP infringes on various rights of the Chinese people. Brutal crackdown on opponents. The war is rampant, yet benefits are low. The one-size-fits-all closure of the city did not allow people to live a normal life. They despise human lives, despise science, and engage in politics. His evil is not in making wrong decisions, but in measuring something on a scale in his decision-making process, if you... https://t.co/im62cuKoTh</t>
   </si>
   <si>
     <t>['1640007325246259202']</t>
@@ -3596,13 +3596,13 @@
     <t>Jwang312</t>
   </si>
   <si>
-    <t>@hjh191 @NiKiTa_32156 😅 If there's no consensus on the CCP committing evil, There's no need to say more. There are too many and complicated entries, so please review them yourself. The CCP infringes on various rights of the Chinese people. Brutal crackdown on opponents. The war is rampant, yet benefits are low. The one-size-fits-all closure of the city did not allow people to live a normal life. They despise human lives, despise science, and engage in politics. His evil is not in making wrong decisions, but in measuring something on a scale in his decision-making process, if you... https://t.co/im62cuKoTh</t>
+    <t>@hjh191 @NiKiTa_32156 😅 If there's no consensus that the CCP is committing evil, There's no need to say more. There are too many and complicated entries, so please review them yourself. The CCP infringes on various rights of the Chinese people. Brutal crackdown on opponents. The war is rampant, yet benefits are low. The one-size-fits-all closure of the city did not allow people to live a normal life. They despise human lives, despise science, and engage in politics. His evil is not in making wrong decisions, but in measuring something on a scale in his decision-making process, if you... https://t.co/im62cuKoTh</t>
   </si>
   <si>
     <t>2023-03-26T14:59:26 .000Z</t>
   </si>
   <si>
-    <t>@Jwang312 @NiKiTa_32156 What is wrong with the CCP? Which country doesn't have a dark history? Now no country in the world's greatest power has done evil. Don't just talk about evil. If something happens, take the closure of the city from abroad, let's take the closure of the city. The closure of the city, if it's not right, don't block it, affects the recovery of the world economy. The blockade is lifted, and it's not right from abroad. It could have an impact on the epidemic and affect the recovery of the world economy. If you don't do it right, then it's not right to do it. Well, I'm too lazy to pay attention to what foreign countries say</t>
+    <t>@Jwang312 @NiKiTa_32156 What is wrong with the CCP? Which country doesn't have a dark history? Now no country among the world's greatest powers has done evil. Don't just talk about evil. If something happens, take the closure of the city from abroad, let's take the closure of the city. The closure of the city, if it's not right, don't block it, affects the recovery of the world economy. The blockade is lifted, and it's not right from abroad. It could have an impact on the epidemic and affect the recovery of the world economy. If you don't do it right, then it's not right to do it. Well, I'm too lazy to pay attention to what foreign countries say</t>
   </si>
   <si>
     <t>['1640005546525995008']</t>
@@ -3611,7 +3611,7 @@
     <t>hjh191</t>
   </si>
   <si>
-    <t>@Jwang312 @NiKiTa_32156 What is wrong with the CCP? Which country doesn't have a dark history? Now no country in the world's greatest power has done evil. Don't just talk about evil. If something happens, take the closure of the city from abroad, let's take the closure of the city. The closure of the city, if it's not right, don't block it, affects the recovery of the world economy. The blockade is lifted, and it's not right from abroad. It could have an impact on the epidemic and affect the recovery of the world economy. If you don't do it right, then it's not right to do it. Well, I'm too lazy to pay attention to what foreign countries say</t>
+    <t>@Jwang312 @NiKiTa_32156 What is wrong with the CCP? Which country doesn't have a dark history? Now no country among the world's greatest powers has done evil. Don't just talk about evil. If something happens, take the closure of the city from abroad, let's take the closure of the city. The closure of the city, if it's not right, don't block it, affects the recovery of the world economy. The blockade is lifted, and it's not right from abroad. It could have an impact on the epidemic and affect the recovery of the world economy. If you don't do it right, then it's not right to do it. Well, I'm too lazy to pay attention to what foreign countries say</t>
   </si>
   <si>
     <t>2023-03-26T12:11:07 .000Z</t>
@@ -3632,7 +3632,7 @@
     <t>2023-03-26T12:09:55 .000Z</t>
   </si>
   <si>
-    <t>In the era without mobile phones, it's hard to imagine that every person now has a portable smart phone that combines various functions such as a network, computer, camera, video recorder, music player, flashlight, etc. _x000D_
+    <t>In the era without mobile phones, it's hard to imagine that everyone now has a portable smart phone that combines various functions such as a network, computer, camera, video recorder, music player, flashlight, etc. _x000D_
  _x000D_ The outbreak of the
  Wuhan pneumonia, CCP virus, and CCP pneumonia (novel coronavirus) epidemic surprised people to discover that China's Communist Party can treat people so harshly. The closure of the city kept people confined to their homes for many months.</t>
   </si>
@@ -3643,7 +3643,7 @@
     <t>2021 Yanyan</t>
   </si>
   <si>
-    <t>In the era without mobile phones, it's hard to imagine that every person now has a portable smart phone that combines various functions such as a network, computer, camera, video recorder, music player, flashlight, etc. _x000D_
+    <t>In the era without mobile phones, it's hard to imagine that everyone now has a portable smart phone that combines various functions such as a network, computer, camera, video recorder, music player, flashlight, etc. _x000D_
  _x000D_ The outbreak of the
  Wuhan pneumonia, CCP virus, and CCP pneumonia (novel coronavirus) epidemic surprised people to discover that China's Communist Party can treat people so harshly. The closure of the city kept people confined to their homes for many months.</t>
   </si>
@@ -3786,7 +3786,7 @@
     <t>2023-03-25T16:55:36 .000Z</t>
   </si>
   <si>
-    <t>RT @qing66017224: The closure of the city due to the pandemic is so damn annoying. I can't even get a straight guy. I had a hard time making an appointment. JB isn't very old and works on a construction site. It's very pathetic, but the person was very polite. I invited him to have a light meal and asked my brother when he left. I kept the cigarette for you to smoke. I said he didn't need me to have smoke. I bought it for him, and he said he didn't want it. When did the outbreak of the epidemic begin,...</t>
+    <t>RT @qing66017224: The closure of the city due to the pandemic is so damn annoying. I can't even get a straight guy. I had a hard time making an appointment. JB isn't very old and works on a construction site. It's very pathetic, but the person was very polite. I invited him to have a light meal and asked my brother when he left. I kept the cigarette for you to smoke. I said he didn't need me to have smoke. I bought it for him, he said he didn't want it. When did the outbreak of the epidemic begin,...</t>
   </si>
   <si>
     <t>['1639672390257893377']</t>
@@ -3938,14 +3938,14 @@
   <si>
     <t>@xueerli6 @hanwudiliuche2 @FIUB19 @Michaelhsinchu @JoeHsuTaiwan @Peter61397 @Santiago303050 @zimmer724102 @JunPatrol @Destiny78098243 @mzdcnm1893 @xjpcnm2012 @AnnnnnaAnnnnnna @greentea8266 @CatMaid_Love_00 @guzihan0501 @Windyoceane @StarsWalke84446 @LimuyTayal @dieghost16 @TjrtgSgerh @Eulalia31345863 @MoQiong_Black @reborn_captain @HirohitoNSJP @AceAlbert2022 @angaventure @mzdgnm1893 @Cherry999_lin @yumiosusu @a_o_p_477 @shadowi94764835 @momoxiaoyu07 @cndc12734422 @yfi68878926 @Martina11968266 @andyHo86601579 @xiaoxuemeimei22 @aa_009876 @LaqiTayalgo @huskypuppies111 @FrancesWesley14 @ice31004 @paratrooperMk02 @BoXiLai6324 @Adniye33226758 @shagm888 @husky111111111 @Monique38590576 @MetaluciferY the liberated Chinese, did _x000D_
  greet you with cheers? _x000D_
- is your grandma who is delusional about being a local landowner. _x000D_ is
+ is your grandma who is delusional about being a local landowner. _x000D_
+ is
  being taken back from the land and being
  impoverished; _x000D_
- is a three-year old
- bastard of Mao Zedong's dictatorship. _x000D_ is a stupid college student who thinks he is the successor of the Communist Party. _x000D_
- was ordered by Deng Xiaoping. _x000D_
+ is a three-year old bastard of Mao Zedong's dictatorship. _x000D_ is
+ a stupid college student who thinks he is the successor of the Communist Party. _x000D_ was ordered by Deng Xiaoping. _x000D_
  was a three-year stupid closure of the city to clear, _x000D_
- was a three-year blockade of Wuhan Flames With the global pandemic, _x000D_
+ was Wuhan's lungs cleared. Flames With the global pandemic, _x000D_
  China People's Mine is really happy. 😌</t>
   </si>
   <si>
@@ -3957,14 +3957,14 @@
   <si>
     <t>@xueerli6 @hanwudiliuche2 @FIUB19 @Michaelhsinchu @JoeHsuTaiwan @Peter61397 @Santiago303050 @zimmer724102 @JunPatrol @Destiny78098243 @mzdcnm1893 @xjpcnm2012 @AnnnnnaAnnnnnna @greentea8266 @CatMaid_Love_00 @guzihan0501 @Windyoceane @StarsWalke84446 @LimuyTayal @dieghost16 @TjrtgSgerh @Eulalia31345863 @MoQiong_Black @reborn_captain @HirohitoNSJP @AceAlbert2022 @angaventure @mzdgnm1893 @Cherry999_lin @yumiosusu @a_o_p_477 @shadowi94764835 @momoxiaoyu07 @cndc12734422 @yfi68878926 @Martina11968266 @andyHo86601579 @xiaoxuemeimei22 @aa_009876 @LaqiTayalgo @huskypuppies111 @FrancesWesley14 @ice31004 @paratrooperMk02 @BoXiLai6324 @Adniye33226758 @shagm888 @husky111111111 @Monique38590576 @MetaluciferY the liberated Chinese, did _x000D_
  greet you with cheers? _x000D_
- is your grandma who is delusional about being a local landowner. _x000D_ is
+ is your grandma who is delusional about being a local landowner. _x000D_
+ is
  being taken back from the land and being
  impoverished; _x000D_
- is a three-year old
- bastard of Mao Zedong's dictatorship. _x000D_ is a stupid college student who thinks he is the successor of the Communist Party. _x000D_
- was ordered by Deng Xiaoping. _x000D_
+ is a three-year old bastard of Mao Zedong's dictatorship. _x000D_ is
+ a stupid college student who thinks he is the successor of the Communist Party. _x000D_ was ordered by Deng Xiaoping. _x000D_
  was a three-year stupid closure of the city to clear, _x000D_
- was a three-year blockade of Wuhan Flames With the global pandemic, _x000D_
+ was Wuhan's lungs cleared. Flames With the global pandemic, _x000D_
  China People's Mine is really happy. 😌</t>
   </si>
   <si>
@@ -4043,7 +4043,7 @@
     <t>2023-03-24T16:11:33 .000Z</t>
   </si>
   <si>
-    <t>RT @qing66017224: The closure of the city due to the pandemic is so damn annoying. I can't even get a straight guy. I had a hard time making an appointment. JB isn't very old and works on a construction site. It's very pathetic, but the person was very polite. I invited him to have a light meal and asked my brother when he left. I kept the cigarette for you to smoke. I said he didn't need me to have smoke. I bought it for him, and he said he didn't want it. When did the outbreak of the epidemic begin,...</t>
+    <t>RT @qing66017224: The closure of the city due to the pandemic is so damn annoying. I can't even get a straight guy. I had a hard time making an appointment. JB isn't very old and works on a construction site. It's very pathetic, but the person was very polite. I invited him to have a light meal and asked my brother when he left. I kept the cigarette for you to smoke. I said he didn't need me to have smoke. I bought it for him, he said he didn't want it. When did the outbreak of the epidemic begin,...</t>
   </si>
   <si>
     <t>['1639298918591893510']</t>
@@ -4058,7 +4058,7 @@
     <t>2023-03-24T14:39:50 .000Z</t>
   </si>
   <si>
-    <t>RT @StarLuxeUS:【#世界的十字路口】新冠疫情先擊倒了全國的經濟產業；接著中共的「病態清零」、封城封區，又窒息了整個中國經濟。 _x000D_
+    <t>RT @StarLuxeUS: [At the crossroads of the world] The COVID-19 pandemic first knocked down the country's economy and industry; followed by the CCP's “clearing of the disease” and the closure of the city, it also suffocated the entire Chinese economy. _x000D_
  _x000D_
  Also, the relationship between the CCP and the US continues to deteriorate until now, forcing foreign-funded foreign companies to withdraw from China and avoid being dragged down by the CCP. Well, of course, the job market in China is only going down by the sun. _x000D_
  _x000D_
@@ -4071,7 +4071,7 @@
     <t>huanyu01952341</t>
   </si>
   <si>
-    <t xml:space="preserve">[#世界的十字路口】新冠疫情先擊倒了全國的經濟產業；接著中共的「病態清零」、封城封區，又窒息了整個中國經濟。 _x000D_
+    <t xml:space="preserve">[At the crossroads of the world] The COVID-19 pandemic first knocked down the country's economy and industry; then the CCP “cleared the disease” and closed down the city, which also suffocated the entire Chinese economy. _x000D_
  _x000D_
  Also, the relationship between the CCP and the US continues to deteriorate until now, forcing foreign-funded foreign companies to withdraw from China and avoid being dragged down by the CCP. Well, of course, the job market in China is only going down by the sun. _x000D_
  _x000D_
@@ -4131,7 +4131,7 @@
     <t>2023-03-24T13:46:52 .000Z</t>
   </si>
   <si>
-    <t>RT @StarLuxeUS:【#世界的十字路口】新冠疫情先擊倒了全國的經濟產業；接著中共的「病態清零」、封城封區，又窒息了整個中國經濟。 _x000D_
+    <t>RT @StarLuxeUS: [At the crossroads of the world] The COVID-19 pandemic first knocked down the country's economy and industry; followed by the CCP's “clearing of the disease” and the closure of the city, it also suffocated the entire Chinese economy. _x000D_
  _x000D_
  Also, the relationship between the CCP and the US continues to deteriorate until now, forcing foreign-funded foreign companies to withdraw from China and avoid being dragged down by the CCP. Well, of course, the job market in China is only going down by the sun. _x000D_
  _x000D_
@@ -4144,7 +4144,7 @@
     <t>ciwz2ux6n8ac52l</t>
   </si>
   <si>
-    <t xml:space="preserve">[#世界的十字路口】新冠疫情先擊倒了全國的經濟產業；接著中共的「病態清零」、封城封區，又窒息了整個中國經濟。 _x000D_
+    <t xml:space="preserve">[At the crossroads of the world] The COVID-19 pandemic first knocked down the country's economy and industry; then the CCP “cleared the disease” and closed down the city, which also suffocated the entire Chinese economy. _x000D_
  _x000D_
  Also, the relationship between the CCP and the US continues to deteriorate until now, forcing foreign-funded foreign companies to withdraw from China and avoid being dragged down by the CCP. Well, of course, the job market in China is only going down by the sun. _x000D_
  _x000D_
@@ -4154,7 +4154,7 @@
     <t>2023-03-24T13:44:04 .000Z</t>
   </si>
   <si>
-    <t>RT @StarLuxeUS:【#世界的十字路口】新冠疫情先擊倒了全國的經濟產業；接著中共的「病態清零」、封城封區，又窒息了整個中國經濟。 _x000D_
+    <t>RT @StarLuxeUS: [At the crossroads of the world] The COVID-19 pandemic first knocked down the country's economy and industry; followed by the CCP's “clearing of the disease” and the closure of the city, it also suffocated the entire Chinese economy. _x000D_
  _x000D_
  Also, the relationship between the CCP and the US continues to deteriorate until now, forcing foreign-funded foreign companies to withdraw from China and avoid being dragged down by the CCP. Well, of course, the job market in China is only going down by the sun. _x000D_
  _x000D_
@@ -4167,7 +4167,7 @@
     <t>Wangdaming3</t>
   </si>
   <si>
-    <t xml:space="preserve">[#世界的十字路口】新冠疫情先擊倒了全國的經濟產業；接著中共的「病態清零」、封城封區，又窒息了整個中國經濟。 _x000D_
+    <t xml:space="preserve">[At the crossroads of the world] The COVID-19 pandemic first knocked down the country's economy and industry; then the CCP “cleared the disease” and closed down the city, which also suffocated the entire Chinese economy. _x000D_
  _x000D_
  Also, the relationship between the CCP and the US continues to deteriorate until now, forcing foreign-funded foreign companies to withdraw from China and avoid being dragged down by the CCP. Well, of course, the job market in China is only going down by the sun. _x000D_
  _x000D_
@@ -4177,7 +4177,7 @@
     <t>2023-03-24T13:43:03 .000Z</t>
   </si>
   <si>
-    <t>RT @StarLuxeUS:【#世界的十字路口】新冠疫情先擊倒了全國的經濟產業；接著中共的「病態清零」、封城封區，又窒息了整個中國經濟。 _x000D_
+    <t>RT @StarLuxeUS: [At the crossroads of the world] The COVID-19 pandemic first knocked down the country's economy and industry; followed by the CCP's “clearing of the disease” and the closure of the city, it also suffocated the entire Chinese economy. _x000D_
  _x000D_
  Also, the relationship between the CCP and the US continues to deteriorate until now, forcing foreign-funded foreign companies to withdraw from China and avoid being dragged down by the CCP. Well, of course, the job market in China is only going down by the sun. _x000D_
  _x000D_
@@ -4190,7 +4190,7 @@
     <t>Hongyan73203678</t>
   </si>
   <si>
-    <t xml:space="preserve">[#世界的十字路口】新冠疫情先擊倒了全國的經濟產業；接著中共的「病態清零」、封城封區，又窒息了整個中國經濟。 _x000D_
+    <t xml:space="preserve">[At the crossroads of the world] The COVID-19 pandemic first knocked down the country's economy and industry; then the CCP “cleared the disease” and closed down the city, which also suffocated the entire Chinese economy. _x000D_
  _x000D_
  Also, the relationship between the CCP and the US continues to deteriorate until now, forcing foreign-funded foreign companies to withdraw from China and avoid being dragged down by the CCP. Well, of course, the job market in China is only going down by the sun. _x000D_
  _x000D_
@@ -4200,7 +4200,7 @@
     <t>2023-03-24T13:29:05 .000Z</t>
   </si>
   <si>
-    <t>RT @StarLuxeUS:【#世界的十字路口】新冠疫情先擊倒了全國的經濟產業；接著中共的「病態清零」、封城封區，又窒息了整個中國經濟。 _x000D_
+    <t>RT @StarLuxeUS: [At the crossroads of the world] The COVID-19 pandemic first knocked down the country's economy and industry; followed by the CCP's “clearing of the disease” and the closure of the city, it also suffocated the entire Chinese economy. _x000D_
  _x000D_
  Also, the relationship between the CCP and the US continues to deteriorate until now, forcing foreign-funded foreign companies to withdraw from China and avoid being dragged down by the CCP. Well, of course, the job market in China is only going down by the sun. _x000D_
  _x000D_
@@ -4213,7 +4213,7 @@
     <t>Klihongjian</t>
   </si>
   <si>
-    <t xml:space="preserve">[#世界的十字路口】新冠疫情先擊倒了全國的經濟產業；接著中共的「病態清零」、封城封區，又窒息了整個中國經濟。 _x000D_
+    <t xml:space="preserve">[At the crossroads of the world] The COVID-19 pandemic first knocked down the country's economy and industry; then the CCP “cleared the disease” and closed down the city, which also suffocated the entire Chinese economy. _x000D_
  _x000D_
  Also, the relationship between the CCP and the US continues to deteriorate until now, forcing foreign-funded foreign companies to withdraw from China and avoid being dragged down by the CCP. Well, of course, the job market in China is only going down by the sun. _x000D_
  _x000D_
@@ -4618,6560 +4618,5885 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I226"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:8">
+      <c r="A2">
         <v>1.641557478247748e+18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="C2">
         <v>1.328537643660046e+18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="E2">
         <v>1.6417635313256e+18</v>
       </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:8">
+      <c r="A3">
         <v>1.641762165203042e+18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>7.616675447175045e+17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="F3">
+      <c r="E3">
         <v>1.641762165203042e+18</v>
       </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:8">
+      <c r="A4">
         <v>1.641260095563497e+18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>1.5370725345159e+18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="F4">
+      <c r="E4">
         <v>1.641756986281959e+18</v>
       </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:8">
+      <c r="A5">
         <v>1.641482997764375e+18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>1648010748</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="F5">
+      <c r="E5">
         <v>1.641705598755672e+18</v>
       </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:8">
+      <c r="A6">
         <v>1.641695651204571e+18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>356739178</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="F6">
+      <c r="E6">
         <v>1.641695651204571e+18</v>
       </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>1.641276194778694e+18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="D7">
+      <c r="C7">
         <v>2876961888</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="F7">
+      <c r="E7">
         <v>1.641694623205855e+18</v>
       </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:8">
+      <c r="A8">
         <v>1.641681255820411e+18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="D8">
+      <c r="C8">
         <v>1.220798822760296e+18</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="F8">
+      <c r="E8">
         <v>1.641681255820411e+18</v>
       </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:8">
+      <c r="A9">
         <v>1.641680107201868e+18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>1.465387982723203e+18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="F9">
+      <c r="E9">
         <v>1.641680107201868e+18</v>
       </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:8">
+      <c r="A10">
         <v>1.641671880246727e+18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s">
         <v>48</v>
       </c>
-      <c r="D10">
+      <c r="C10">
         <v>1.307890795144311e+18</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" t="s">
         <v>49</v>
       </c>
-      <c r="F10">
+      <c r="E10">
         <v>1.641671880246727e+18</v>
       </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:8">
+      <c r="A11">
         <v>1.641657764941558e+18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s">
         <v>53</v>
       </c>
-      <c r="D11">
+      <c r="C11">
         <v>1.637496038381736e+18</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="F11">
+      <c r="E11">
         <v>1.641657764941558e+18</v>
       </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:8">
+      <c r="A12">
         <v>1.641654215071203e+18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s">
         <v>58</v>
       </c>
-      <c r="D12">
+      <c r="C12">
         <v>1.217841519174005e+18</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" t="s">
         <v>59</v>
       </c>
-      <c r="F12">
+      <c r="E12">
         <v>1.641654215071203e+18</v>
       </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:8">
+      <c r="A13">
         <v>1.641649060234011e+18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s">
         <v>63</v>
       </c>
-      <c r="D13">
+      <c r="C13">
         <v>1.167746051396104e+18</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" t="s">
         <v>64</v>
       </c>
-      <c r="F13">
+      <c r="E13">
         <v>1.641649060234011e+18</v>
       </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:8">
+      <c r="A14">
         <v>1.641644006416196e+18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s">
         <v>68</v>
       </c>
-      <c r="D14">
+      <c r="C14">
         <v>56572394</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14" t="s">
         <v>69</v>
       </c>
-      <c r="F14">
+      <c r="E14">
         <v>1.641644006416196e+18</v>
       </c>
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:8">
+      <c r="A15">
         <v>1.641618186922602e+18</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="D15">
+      <c r="C15">
         <v>1.519501098523972e+18</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D15" t="s">
         <v>74</v>
       </c>
-      <c r="F15">
+      <c r="E15">
         <v>1.641618186922602e+18</v>
       </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:8">
+      <c r="A16">
         <v>1.641611565387612e+18</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s">
         <v>78</v>
       </c>
-      <c r="D16">
+      <c r="C16">
         <v>7312502</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16" t="s">
         <v>79</v>
       </c>
-      <c r="F16">
+      <c r="E16">
         <v>1.641611565387612e+18</v>
       </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:8">
+      <c r="A17">
         <v>1.641610017425211e+18</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s">
         <v>83</v>
       </c>
-      <c r="D17">
+      <c r="C17">
         <v>7.026555662005043e+17</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17" t="s">
         <v>84</v>
       </c>
-      <c r="F17">
+      <c r="E17">
         <v>1.641610017425211e+18</v>
       </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:8">
+      <c r="A18">
         <v>1.641369037996442e+18</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s">
         <v>88</v>
       </c>
-      <c r="D18">
+      <c r="C18">
         <v>1.093398623923007e+18</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D18" t="s">
         <v>89</v>
       </c>
-      <c r="F18">
+      <c r="E18">
         <v>1.641602003154653e+18</v>
       </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:8">
+      <c r="A19">
         <v>1.641600870231187e+18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s">
         <v>93</v>
       </c>
-      <c r="D19">
+      <c r="C19">
         <v>1.539454237653889e+18</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D19" t="s">
         <v>94</v>
       </c>
-      <c r="F19">
+      <c r="E19">
         <v>1.641600870231187e+18</v>
       </c>
+      <c r="F19" t="s">
+        <v>95</v>
+      </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:8">
+      <c r="A20">
         <v>1.641557043730596e+18</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s">
         <v>98</v>
       </c>
-      <c r="D20">
+      <c r="C20">
         <v>9.874741947440128e+17</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D20" t="s">
         <v>99</v>
       </c>
-      <c r="F20">
+      <c r="E20">
         <v>1.641557043730596e+18</v>
       </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:8">
+      <c r="A21">
         <v>1.641547740051112e+18</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s">
         <v>103</v>
       </c>
-      <c r="D21">
+      <c r="C21">
         <v>1.111318191962288e+18</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D21" t="s">
         <v>104</v>
       </c>
-      <c r="F21">
+      <c r="E21">
         <v>1.641547740051112e+18</v>
       </c>
+      <c r="F21" t="s">
+        <v>105</v>
+      </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H21" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:8">
+      <c r="A22">
         <v>1.641546850321703e+18</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s">
         <v>108</v>
       </c>
-      <c r="D22">
+      <c r="C22">
         <v>1.537503425159643e+18</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22" t="s">
         <v>109</v>
       </c>
-      <c r="F22">
+      <c r="E22">
         <v>1.641546850321703e+18</v>
       </c>
+      <c r="F22" t="s">
+        <v>110</v>
+      </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H22" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:8">
+      <c r="A23">
         <v>1.641541987978363e+18</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s">
         <v>113</v>
       </c>
-      <c r="D23">
+      <c r="C23">
         <v>1.246151954587419e+18</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23" t="s">
         <v>114</v>
       </c>
-      <c r="F23">
+      <c r="E23">
         <v>1.641541987978363e+18</v>
       </c>
+      <c r="F23" t="s">
+        <v>115</v>
+      </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:8">
+      <c r="A24">
         <v>1.641535632572047e+18</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s">
         <v>118</v>
       </c>
-      <c r="D24">
+      <c r="C24">
         <v>1.499736887476748e+18</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24" t="s">
         <v>119</v>
       </c>
-      <c r="F24">
+      <c r="E24">
         <v>1.641535632572047e+18</v>
       </c>
+      <c r="F24" t="s">
+        <v>120</v>
+      </c>
       <c r="G24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H24" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:8">
+      <c r="A25">
         <v>1.641204476575883e+18</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s">
         <v>123</v>
       </c>
-      <c r="D25">
+      <c r="C25">
         <v>1.466809776189284e+18</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D25" t="s">
         <v>124</v>
       </c>
-      <c r="F25">
+      <c r="E25">
         <v>1.64152642313454e+18</v>
       </c>
+      <c r="F25" t="s">
+        <v>125</v>
+      </c>
       <c r="G25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H25" t="s">
-        <v>126</v>
-      </c>
-      <c r="I25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:8">
+      <c r="A26">
         <v>1.641507804409213e+18</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s">
         <v>128</v>
       </c>
-      <c r="D26">
+      <c r="C26">
         <v>1.336730761186173e+18</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D26" t="s">
         <v>129</v>
       </c>
-      <c r="F26">
+      <c r="E26">
         <v>1.641507804409213e+18</v>
       </c>
+      <c r="F26" t="s">
+        <v>130</v>
+      </c>
       <c r="G26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H26" t="s">
-        <v>131</v>
-      </c>
-      <c r="I26" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:8">
+      <c r="A27">
         <v>1.641498620477456e+18</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s">
         <v>133</v>
       </c>
-      <c r="D27">
+      <c r="C27">
         <v>7.916765474763039e+17</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D27" t="s">
         <v>134</v>
       </c>
-      <c r="F27">
+      <c r="E27">
         <v>1.641498620477456e+18</v>
       </c>
+      <c r="F27" t="s">
+        <v>135</v>
+      </c>
       <c r="G27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H27" t="s">
-        <v>136</v>
-      </c>
-      <c r="I27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:8">
+      <c r="A28">
         <v>1.641477174187246e+18</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B28" t="s">
         <v>138</v>
       </c>
-      <c r="D28">
+      <c r="C28">
         <v>9.758154682704077e+17</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D28" t="s">
         <v>139</v>
       </c>
-      <c r="F28">
+      <c r="E28">
         <v>1.641481327907144e+18</v>
       </c>
+      <c r="F28" t="s">
+        <v>140</v>
+      </c>
       <c r="G28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H28" t="s">
-        <v>141</v>
-      </c>
-      <c r="I28" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:8">
+      <c r="A29">
         <v>1.64147382273717e+18</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s">
         <v>143</v>
       </c>
-      <c r="D29">
+      <c r="C29">
         <v>1.602863020438585e+18</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D29" t="s">
         <v>144</v>
       </c>
-      <c r="F29">
+      <c r="E29">
         <v>1.64147382273717e+18</v>
       </c>
+      <c r="F29" t="s">
+        <v>145</v>
+      </c>
       <c r="G29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H29" t="s">
-        <v>146</v>
-      </c>
-      <c r="I29" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:8">
+      <c r="A30">
         <v>1.638763913075651e+18</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B30" t="s">
         <v>148</v>
       </c>
-      <c r="D30">
+      <c r="C30">
         <v>1.472807698135585e+18</v>
       </c>
-      <c r="E30" t="s">
+      <c r="D30" t="s">
         <v>149</v>
       </c>
-      <c r="F30">
+      <c r="E30">
         <v>1.641469238270628e+18</v>
       </c>
+      <c r="F30" t="s">
+        <v>150</v>
+      </c>
       <c r="G30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H30" t="s">
-        <v>151</v>
-      </c>
-      <c r="I30" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:8">
+      <c r="A31">
         <v>1.641464725002134e+18</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s">
         <v>153</v>
       </c>
-      <c r="D31">
+      <c r="C31">
         <v>1.23360115930008e+18</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D31" t="s">
         <v>154</v>
       </c>
-      <c r="F31">
+      <c r="E31">
         <v>1.641464725002134e+18</v>
       </c>
+      <c r="F31" t="s">
+        <v>155</v>
+      </c>
       <c r="G31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H31" t="s">
-        <v>156</v>
-      </c>
-      <c r="I31" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:8">
+      <c r="A32">
         <v>1.64145327406594e+18</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s">
         <v>158</v>
       </c>
-      <c r="D32">
+      <c r="C32">
         <v>4064434513</v>
       </c>
-      <c r="E32" t="s">
+      <c r="D32" t="s">
         <v>159</v>
       </c>
-      <c r="F32">
+      <c r="E32">
         <v>1.64145327406594e+18</v>
       </c>
+      <c r="F32" t="s">
+        <v>160</v>
+      </c>
       <c r="G32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H32" t="s">
-        <v>161</v>
-      </c>
-      <c r="I32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:8">
+      <c r="A33">
         <v>1.641447812750791e+18</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s">
         <v>163</v>
       </c>
-      <c r="D33">
+      <c r="C33">
         <v>1.547160546947936e+18</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D33" t="s">
         <v>164</v>
       </c>
-      <c r="F33">
+      <c r="E33">
         <v>1.641452005100261e+18</v>
       </c>
+      <c r="F33" t="s">
+        <v>165</v>
+      </c>
       <c r="G33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H33" t="s">
-        <v>166</v>
-      </c>
-      <c r="I33" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:8">
+      <c r="A34">
         <v>1.641449669317517e+18</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s">
         <v>168</v>
       </c>
-      <c r="D34">
+      <c r="C34">
         <v>1.268202634541797e+18</v>
       </c>
-      <c r="E34" t="s">
+      <c r="D34" t="s">
         <v>169</v>
       </c>
-      <c r="F34">
+      <c r="E34">
         <v>1.641449669317517e+18</v>
       </c>
+      <c r="F34" t="s">
+        <v>170</v>
+      </c>
       <c r="G34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H34" t="s">
-        <v>171</v>
-      </c>
-      <c r="I34" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:8">
+      <c r="A35">
         <v>1.641445598770647e+18</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B35" t="s">
         <v>173</v>
       </c>
-      <c r="D35">
+      <c r="C35">
         <v>1.598576248094982e+18</v>
       </c>
-      <c r="E35" t="s">
+      <c r="D35" t="s">
         <v>174</v>
       </c>
-      <c r="F35">
+      <c r="E35">
         <v>1.641445598770647e+18</v>
       </c>
+      <c r="F35" t="s">
+        <v>175</v>
+      </c>
       <c r="G35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H35" t="s">
-        <v>176</v>
-      </c>
-      <c r="I35" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:8">
+      <c r="A36">
         <v>1.64142492010113e+18</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B36" t="s">
         <v>178</v>
       </c>
-      <c r="D36">
+      <c r="C36">
         <v>1.581895822429413e+18</v>
       </c>
-      <c r="E36" t="s">
+      <c r="D36" t="s">
         <v>179</v>
       </c>
-      <c r="F36">
+      <c r="E36">
         <v>1.64142492010113e+18</v>
       </c>
+      <c r="F36" t="s">
+        <v>180</v>
+      </c>
       <c r="G36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H36" t="s">
-        <v>181</v>
-      </c>
-      <c r="I36" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
+    <row r="37" spans="1:8">
+      <c r="A37">
         <v>1.641419819093221e+18</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s">
         <v>183</v>
       </c>
-      <c r="D37">
+      <c r="C37">
         <v>1.291340575732531e+18</v>
       </c>
-      <c r="E37" t="s">
+      <c r="D37" t="s">
         <v>184</v>
       </c>
-      <c r="F37">
+      <c r="E37">
         <v>1.641419819093221e+18</v>
       </c>
+      <c r="F37" t="s">
+        <v>185</v>
+      </c>
       <c r="G37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H37" t="s">
-        <v>186</v>
-      </c>
-      <c r="I37" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
+    <row r="38" spans="1:8">
+      <c r="A38">
         <v>1.641369037996442e+18</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B38" t="s">
         <v>188</v>
       </c>
-      <c r="D38">
+      <c r="C38">
         <v>1.544669513823633e+18</v>
       </c>
-      <c r="E38" t="s">
+      <c r="D38" t="s">
         <v>189</v>
       </c>
-      <c r="F38">
+      <c r="E38">
         <v>1.641414912265036e+18</v>
       </c>
+      <c r="F38" t="s">
+        <v>190</v>
+      </c>
       <c r="G38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H38" t="s">
-        <v>191</v>
-      </c>
-      <c r="I38" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
+    <row r="39" spans="1:8">
+      <c r="A39">
         <v>1.641412130111996e+18</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B39" t="s">
         <v>193</v>
       </c>
-      <c r="D39">
+      <c r="C39">
         <v>1.398378594699649e+18</v>
       </c>
-      <c r="E39" t="s">
+      <c r="D39" t="s">
         <v>194</v>
       </c>
-      <c r="F39">
+      <c r="E39">
         <v>1.641412130111996e+18</v>
       </c>
+      <c r="F39" t="s">
+        <v>195</v>
+      </c>
       <c r="G39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H39" t="s">
-        <v>196</v>
-      </c>
-      <c r="I39" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
+    <row r="40" spans="1:8">
+      <c r="A40">
         <v>1.641094441057284e+18</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B40" t="s">
         <v>198</v>
       </c>
-      <c r="D40">
+      <c r="C40">
         <v>1.207714872659562e+18</v>
       </c>
-      <c r="E40" t="s">
+      <c r="D40" t="s">
         <v>199</v>
       </c>
-      <c r="F40">
+      <c r="E40">
         <v>1.641401179346436e+18</v>
       </c>
+      <c r="F40" t="s">
+        <v>200</v>
+      </c>
       <c r="G40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H40" t="s">
-        <v>201</v>
-      </c>
-      <c r="I40" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>1.641369037996442e+18</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B41" t="s">
         <v>203</v>
       </c>
-      <c r="D41">
+      <c r="C41">
         <v>1.568252819261751e+18</v>
       </c>
-      <c r="E41" t="s">
+      <c r="D41" t="s">
         <v>204</v>
       </c>
-      <c r="F41">
+      <c r="E41">
         <v>1.641387183729697e+18</v>
       </c>
+      <c r="F41" t="s">
+        <v>205</v>
+      </c>
       <c r="G41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H41" t="s">
-        <v>206</v>
-      </c>
-      <c r="I41" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
+    <row r="42" spans="1:8">
+      <c r="A42">
         <v>1.641387168105939e+18</v>
       </c>
-      <c r="C42" t="s">
+      <c r="B42" t="s">
         <v>208</v>
       </c>
-      <c r="D42">
+      <c r="C42">
         <v>1.568252819261751e+18</v>
       </c>
-      <c r="E42" t="s">
+      <c r="D42" t="s">
         <v>209</v>
       </c>
-      <c r="F42">
+      <c r="E42">
         <v>1.641387168105939e+18</v>
       </c>
+      <c r="F42" t="s">
+        <v>210</v>
+      </c>
       <c r="G42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H42" t="s">
-        <v>211</v>
-      </c>
-      <c r="I42" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
+    <row r="43" spans="1:8">
+      <c r="A43">
         <v>1.641385123299066e+18</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B43" t="s">
         <v>213</v>
       </c>
-      <c r="D43">
+      <c r="C43">
         <v>1.184026949091394e+18</v>
       </c>
-      <c r="E43" t="s">
+      <c r="D43" t="s">
         <v>214</v>
       </c>
-      <c r="F43">
+      <c r="E43">
         <v>1.641385123299066e+18</v>
       </c>
+      <c r="F43" t="s">
+        <v>215</v>
+      </c>
       <c r="G43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H43" t="s">
-        <v>216</v>
-      </c>
-      <c r="I43" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
+    <row r="44" spans="1:8">
+      <c r="A44">
         <v>1.641384879542915e+18</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B44" t="s">
         <v>218</v>
       </c>
-      <c r="D44">
+      <c r="C44">
         <v>10002852</v>
       </c>
-      <c r="E44" t="s">
+      <c r="D44" t="s">
         <v>219</v>
       </c>
-      <c r="F44">
+      <c r="E44">
         <v>1.641384879542915e+18</v>
       </c>
+      <c r="F44" t="s">
+        <v>220</v>
+      </c>
       <c r="G44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H44" t="s">
-        <v>221</v>
-      </c>
-      <c r="I44" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
+    <row r="45" spans="1:8">
+      <c r="A45">
         <v>1.6413843084339e+18</v>
       </c>
-      <c r="C45" t="s">
+      <c r="B45" t="s">
         <v>223</v>
       </c>
-      <c r="D45">
+      <c r="C45">
         <v>8.776305596688835e+17</v>
       </c>
-      <c r="E45" t="s">
+      <c r="D45" t="s">
         <v>224</v>
       </c>
-      <c r="F45">
+      <c r="E45">
         <v>1.6413843084339e+18</v>
       </c>
+      <c r="F45" t="s">
+        <v>225</v>
+      </c>
       <c r="G45" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H45" t="s">
-        <v>226</v>
-      </c>
-      <c r="I45" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
+    <row r="46" spans="1:8">
+      <c r="A46">
         <v>1.641383864764633e+18</v>
       </c>
-      <c r="C46" t="s">
+      <c r="B46" t="s">
         <v>228</v>
       </c>
-      <c r="D46">
+      <c r="C46">
         <v>1.631378318707823e+18</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D46" t="s">
         <v>229</v>
       </c>
-      <c r="F46">
+      <c r="E46">
         <v>1.641383864764633e+18</v>
       </c>
+      <c r="F46" t="s">
+        <v>230</v>
+      </c>
       <c r="G46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H46" t="s">
-        <v>231</v>
-      </c>
-      <c r="I46" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
+    <row r="47" spans="1:8">
+      <c r="A47">
         <v>1.641383568739033e+18</v>
       </c>
-      <c r="C47" t="s">
+      <c r="B47" t="s">
         <v>233</v>
       </c>
-      <c r="D47">
+      <c r="C47">
         <v>1.393452017197015e+18</v>
       </c>
-      <c r="E47" t="s">
+      <c r="D47" t="s">
         <v>234</v>
       </c>
-      <c r="F47">
+      <c r="E47">
         <v>1.641383568739033e+18</v>
       </c>
+      <c r="F47" t="s">
+        <v>235</v>
+      </c>
       <c r="G47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H47" t="s">
-        <v>236</v>
-      </c>
-      <c r="I47" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
+    <row r="48" spans="1:8">
+      <c r="A48">
         <v>1.641383437821944e+18</v>
       </c>
-      <c r="C48" t="s">
+      <c r="B48" t="s">
         <v>238</v>
       </c>
-      <c r="D48">
+      <c r="C48">
         <v>616758834</v>
       </c>
-      <c r="E48" t="s">
+      <c r="D48" t="s">
         <v>239</v>
       </c>
-      <c r="F48">
+      <c r="E48">
         <v>1.641383437821944e+18</v>
       </c>
+      <c r="F48" t="s">
+        <v>240</v>
+      </c>
       <c r="G48" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H48" t="s">
-        <v>241</v>
-      </c>
-      <c r="I48" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
+    <row r="49" spans="1:8">
+      <c r="A49">
         <v>1.641382644528161e+18</v>
       </c>
-      <c r="C49" t="s">
+      <c r="B49" t="s">
         <v>243</v>
       </c>
-      <c r="D49">
+      <c r="C49">
         <v>19016477</v>
       </c>
-      <c r="E49" t="s">
+      <c r="D49" t="s">
         <v>244</v>
       </c>
-      <c r="F49">
+      <c r="E49">
         <v>1.641382644528161e+18</v>
       </c>
+      <c r="F49" t="s">
+        <v>245</v>
+      </c>
       <c r="G49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H49" t="s">
-        <v>246</v>
-      </c>
-      <c r="I49" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
+    <row r="50" spans="1:8">
+      <c r="A50">
         <v>1.64138225726824e+18</v>
       </c>
-      <c r="C50" t="s">
+      <c r="B50" t="s">
         <v>248</v>
       </c>
-      <c r="D50">
+      <c r="C50">
         <v>1.248538217160167e+18</v>
       </c>
-      <c r="E50" t="s">
+      <c r="D50" t="s">
         <v>249</v>
       </c>
-      <c r="F50">
+      <c r="E50">
         <v>1.64138225726824e+18</v>
       </c>
+      <c r="F50" t="s">
+        <v>250</v>
+      </c>
       <c r="G50" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H50" t="s">
-        <v>251</v>
-      </c>
-      <c r="I50" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
+    <row r="51" spans="1:8">
+      <c r="A51">
         <v>1.641381448031818e+18</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B51" t="s">
         <v>253</v>
       </c>
-      <c r="D51">
+      <c r="C51">
         <v>1.356841750648611e+18</v>
       </c>
-      <c r="E51" t="s">
+      <c r="D51" t="s">
         <v>254</v>
       </c>
-      <c r="F51">
+      <c r="E51">
         <v>1.641381448031818e+18</v>
       </c>
+      <c r="F51" t="s">
+        <v>255</v>
+      </c>
       <c r="G51" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H51" t="s">
-        <v>256</v>
-      </c>
-      <c r="I51" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
+    <row r="52" spans="1:8">
+      <c r="A52">
         <v>1.641377320316568e+18</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B52" t="s">
         <v>258</v>
       </c>
-      <c r="D52">
+      <c r="C52">
         <v>220592336</v>
       </c>
-      <c r="E52" t="s">
+      <c r="D52" t="s">
         <v>259</v>
       </c>
-      <c r="F52">
+      <c r="E52">
         <v>1.641377320316568e+18</v>
       </c>
+      <c r="F52" t="s">
+        <v>260</v>
+      </c>
       <c r="G52" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H52" t="s">
-        <v>261</v>
-      </c>
-      <c r="I52" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
+    <row r="53" spans="1:8">
+      <c r="A53">
         <v>1.641374439735722e+18</v>
       </c>
-      <c r="C53" t="s">
+      <c r="B53" t="s">
         <v>263</v>
       </c>
-      <c r="D53">
+      <c r="C53">
         <v>8.773671597265019e+17</v>
       </c>
-      <c r="E53" t="s">
+      <c r="D53" t="s">
         <v>264</v>
       </c>
-      <c r="F53">
+      <c r="E53">
         <v>1.641374439735722e+18</v>
       </c>
+      <c r="F53" t="s">
+        <v>265</v>
+      </c>
       <c r="G53" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H53" t="s">
-        <v>266</v>
-      </c>
-      <c r="I53" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
+    <row r="54" spans="1:8">
+      <c r="A54">
         <v>1.641368579776938e+18</v>
       </c>
-      <c r="C54" t="s">
+      <c r="B54" t="s">
         <v>268</v>
       </c>
-      <c r="D54">
+      <c r="C54">
         <v>1.077906424661856e+18</v>
       </c>
-      <c r="E54" t="s">
+      <c r="D54" t="s">
         <v>269</v>
       </c>
-      <c r="F54">
+      <c r="E54">
         <v>1.641368579776938e+18</v>
       </c>
+      <c r="F54" t="s">
+        <v>270</v>
+      </c>
       <c r="G54" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H54" t="s">
-        <v>271</v>
-      </c>
-      <c r="I54" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
+    <row r="55" spans="1:8">
+      <c r="A55">
         <v>1.641365485131538e+18</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B55" t="s">
         <v>273</v>
       </c>
-      <c r="D55">
+      <c r="C55">
         <v>257844864</v>
       </c>
-      <c r="E55" t="s">
+      <c r="D55" t="s">
         <v>274</v>
       </c>
-      <c r="F55">
+      <c r="E55">
         <v>1.641365485131538e+18</v>
       </c>
+      <c r="F55" t="s">
+        <v>275</v>
+      </c>
       <c r="G55" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H55" t="s">
-        <v>276</v>
-      </c>
-      <c r="I55" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
+    <row r="56" spans="1:8">
+      <c r="A56">
         <v>1.641268626174153e+18</v>
       </c>
-      <c r="C56" t="s">
+      <c r="B56" t="s">
         <v>278</v>
       </c>
-      <c r="D56">
+      <c r="C56">
         <v>1.224234588538491e+18</v>
       </c>
-      <c r="E56" t="s">
+      <c r="D56" t="s">
         <v>279</v>
       </c>
-      <c r="F56">
+      <c r="E56">
         <v>1.641364569154257e+18</v>
       </c>
+      <c r="F56" t="s">
+        <v>280</v>
+      </c>
       <c r="G56" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H56" t="s">
-        <v>281</v>
-      </c>
-      <c r="I56" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57">
+    <row r="57" spans="1:8">
+      <c r="A57">
         <v>1.64131856146459e+18</v>
       </c>
-      <c r="C57" t="s">
+      <c r="B57" t="s">
         <v>283</v>
       </c>
-      <c r="D57">
+      <c r="C57">
         <v>1.629643456636416e+18</v>
       </c>
-      <c r="E57" t="s">
+      <c r="D57" t="s">
         <v>284</v>
       </c>
-      <c r="F57">
+      <c r="E57">
         <v>1.641340027962794e+18</v>
       </c>
+      <c r="F57" t="s">
+        <v>285</v>
+      </c>
       <c r="G57" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H57" t="s">
-        <v>286</v>
-      </c>
-      <c r="I57" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58">
+    <row r="58" spans="1:8">
+      <c r="A58">
         <v>1.641338024939209e+18</v>
       </c>
-      <c r="C58" t="s">
+      <c r="B58" t="s">
         <v>288</v>
       </c>
-      <c r="D58">
+      <c r="C58">
         <v>1.606219198350316e+18</v>
       </c>
-      <c r="E58" t="s">
+      <c r="D58" t="s">
         <v>289</v>
       </c>
-      <c r="F58">
+      <c r="E58">
         <v>1.641338024939209e+18</v>
       </c>
+      <c r="F58" t="s">
+        <v>290</v>
+      </c>
       <c r="G58" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H58" t="s">
-        <v>291</v>
-      </c>
-      <c r="I58" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59">
+    <row r="59" spans="1:8">
+      <c r="A59">
         <v>1.641334573421433e+18</v>
       </c>
-      <c r="C59" t="s">
+      <c r="B59" t="s">
         <v>293</v>
       </c>
-      <c r="D59">
+      <c r="C59">
         <v>123459032</v>
       </c>
-      <c r="E59" t="s">
+      <c r="D59" t="s">
         <v>294</v>
       </c>
-      <c r="F59">
+      <c r="E59">
         <v>1.641334573421433e+18</v>
       </c>
+      <c r="F59" t="s">
+        <v>295</v>
+      </c>
       <c r="G59" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H59" t="s">
-        <v>296</v>
-      </c>
-      <c r="I59" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
+    <row r="60" spans="1:8">
+      <c r="A60">
         <v>1.641331049786638e+18</v>
       </c>
-      <c r="C60" t="s">
+      <c r="B60" t="s">
         <v>298</v>
       </c>
-      <c r="D60">
+      <c r="C60">
         <v>1.336255336131351e+18</v>
       </c>
-      <c r="E60" t="s">
+      <c r="D60" t="s">
         <v>299</v>
       </c>
-      <c r="F60">
+      <c r="E60">
         <v>1.641331049786638e+18</v>
       </c>
+      <c r="F60" t="s">
+        <v>300</v>
+      </c>
       <c r="G60" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H60" t="s">
-        <v>301</v>
-      </c>
-      <c r="I60" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
+    <row r="61" spans="1:8">
+      <c r="A61">
         <v>1.641327797628203e+18</v>
       </c>
-      <c r="C61" t="s">
+      <c r="B61" t="s">
         <v>303</v>
       </c>
-      <c r="D61">
+      <c r="C61">
         <v>1329406249</v>
       </c>
-      <c r="E61" t="s">
+      <c r="D61" t="s">
         <v>304</v>
       </c>
-      <c r="F61">
+      <c r="E61">
         <v>1.641327797628203e+18</v>
       </c>
+      <c r="F61" t="s">
+        <v>305</v>
+      </c>
       <c r="G61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H61" t="s">
-        <v>306</v>
-      </c>
-      <c r="I61" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62">
+    <row r="62" spans="1:8">
+      <c r="A62">
         <v>1.641320252863652e+18</v>
       </c>
-      <c r="C62" t="s">
+      <c r="B62" t="s">
         <v>308</v>
       </c>
-      <c r="D62">
+      <c r="C62">
         <v>8.614284755839058e+17</v>
       </c>
-      <c r="E62" t="s">
+      <c r="D62" t="s">
         <v>309</v>
       </c>
-      <c r="F62">
+      <c r="E62">
         <v>1.641320252863652e+18</v>
       </c>
+      <c r="F62" t="s">
+        <v>310</v>
+      </c>
       <c r="G62" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H62" t="s">
-        <v>311</v>
-      </c>
-      <c r="I62" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63">
+    <row r="63" spans="1:8">
+      <c r="A63">
         <v>1.641315864212541e+18</v>
       </c>
-      <c r="C63" t="s">
+      <c r="B63" t="s">
         <v>313</v>
       </c>
-      <c r="D63">
+      <c r="C63">
         <v>1.580879737546752e+18</v>
       </c>
-      <c r="E63" t="s">
+      <c r="D63" t="s">
         <v>314</v>
       </c>
-      <c r="F63">
+      <c r="E63">
         <v>1.641315864212541e+18</v>
       </c>
+      <c r="F63" t="s">
+        <v>315</v>
+      </c>
       <c r="G63" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H63" t="s">
-        <v>316</v>
-      </c>
-      <c r="I63" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64">
+    <row r="64" spans="1:8">
+      <c r="A64">
         <v>1.64131472929244e+18</v>
       </c>
-      <c r="C64" t="s">
+      <c r="B64" t="s">
         <v>318</v>
       </c>
-      <c r="D64">
+      <c r="C64">
         <v>525551777</v>
       </c>
-      <c r="E64" t="s">
+      <c r="D64" t="s">
         <v>319</v>
       </c>
-      <c r="F64">
+      <c r="E64">
         <v>1.64131472929244e+18</v>
       </c>
+      <c r="F64" t="s">
+        <v>320</v>
+      </c>
       <c r="G64" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H64" t="s">
-        <v>321</v>
-      </c>
-      <c r="I64" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65">
+    <row r="65" spans="1:8">
+      <c r="A65">
         <v>1.641314622295937e+18</v>
       </c>
-      <c r="C65" t="s">
+      <c r="B65" t="s">
         <v>323</v>
       </c>
-      <c r="D65">
+      <c r="C65">
         <v>1.494244907409494e+18</v>
       </c>
-      <c r="E65" t="s">
+      <c r="D65" t="s">
         <v>324</v>
       </c>
-      <c r="F65">
+      <c r="E65">
         <v>1.641314622295937e+18</v>
       </c>
+      <c r="F65" t="s">
+        <v>325</v>
+      </c>
       <c r="G65" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H65" t="s">
-        <v>326</v>
-      </c>
-      <c r="I65" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66">
+    <row r="66" spans="1:8">
+      <c r="A66">
         <v>1.641312031432413e+18</v>
       </c>
-      <c r="C66" t="s">
+      <c r="B66" t="s">
         <v>328</v>
       </c>
-      <c r="D66">
+      <c r="C66">
         <v>8.855651795340984e+17</v>
       </c>
-      <c r="E66" t="s">
+      <c r="D66" t="s">
         <v>329</v>
       </c>
-      <c r="F66">
+      <c r="E66">
         <v>1.641312031432413e+18</v>
       </c>
+      <c r="F66" t="s">
+        <v>330</v>
+      </c>
       <c r="G66" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H66" t="s">
-        <v>331</v>
-      </c>
-      <c r="I66" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67">
+    <row r="67" spans="1:8">
+      <c r="A67">
         <v>1.641308863151604e+18</v>
       </c>
-      <c r="C67" t="s">
+      <c r="B67" t="s">
         <v>333</v>
       </c>
-      <c r="D67">
+      <c r="C67">
         <v>553704903</v>
       </c>
-      <c r="E67" t="s">
+      <c r="D67" t="s">
         <v>334</v>
       </c>
-      <c r="F67">
+      <c r="E67">
         <v>1.641308863151604e+18</v>
       </c>
+      <c r="F67" t="s">
+        <v>335</v>
+      </c>
       <c r="G67" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H67" t="s">
-        <v>336</v>
-      </c>
-      <c r="I67" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68">
+    <row r="68" spans="1:8">
+      <c r="A68">
         <v>1.641308013339488e+18</v>
       </c>
-      <c r="C68" t="s">
+      <c r="B68" t="s">
         <v>338</v>
       </c>
-      <c r="D68">
+      <c r="C68">
         <v>8.726658619155005e+17</v>
       </c>
-      <c r="E68" t="s">
+      <c r="D68" t="s">
         <v>339</v>
       </c>
-      <c r="F68">
+      <c r="E68">
         <v>1.641308013339488e+18</v>
       </c>
+      <c r="F68" t="s">
+        <v>340</v>
+      </c>
       <c r="G68" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H68" t="s">
-        <v>341</v>
-      </c>
-      <c r="I68" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69">
+    <row r="69" spans="1:8">
+      <c r="A69">
         <v>1.641298071408775e+18</v>
       </c>
-      <c r="C69" t="s">
+      <c r="B69" t="s">
         <v>343</v>
       </c>
-      <c r="D69">
+      <c r="C69">
         <v>1.473877322780398e+18</v>
       </c>
-      <c r="E69" t="s">
+      <c r="D69" t="s">
         <v>344</v>
       </c>
-      <c r="F69">
+      <c r="E69">
         <v>1.641298071408775e+18</v>
       </c>
+      <c r="F69" t="s">
+        <v>345</v>
+      </c>
       <c r="G69" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H69" t="s">
-        <v>346</v>
-      </c>
-      <c r="I69" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70">
+    <row r="70" spans="1:8">
+      <c r="A70">
         <v>1.64129730232438e+18</v>
       </c>
-      <c r="C70" t="s">
+      <c r="B70" t="s">
         <v>348</v>
       </c>
-      <c r="D70">
+      <c r="C70">
         <v>1.583372407460532e+18</v>
       </c>
-      <c r="E70" t="s">
+      <c r="D70" t="s">
         <v>349</v>
       </c>
-      <c r="F70">
+      <c r="E70">
         <v>1.64129730232438e+18</v>
       </c>
+      <c r="F70" t="s">
+        <v>350</v>
+      </c>
       <c r="G70" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H70" t="s">
-        <v>351</v>
-      </c>
-      <c r="I70" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71">
+    <row r="71" spans="1:8">
+      <c r="A71">
         <v>1.641296756209246e+18</v>
       </c>
-      <c r="C71" t="s">
+      <c r="B71" t="s">
         <v>353</v>
       </c>
-      <c r="D71">
+      <c r="C71">
         <v>1.604244115532632e+18</v>
       </c>
-      <c r="E71" t="s">
+      <c r="D71" t="s">
         <v>354</v>
       </c>
-      <c r="F71">
+      <c r="E71">
         <v>1.641296756209246e+18</v>
       </c>
+      <c r="F71" t="s">
+        <v>355</v>
+      </c>
       <c r="G71" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H71" t="s">
-        <v>356</v>
-      </c>
-      <c r="I71" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72">
+    <row r="72" spans="1:8">
+      <c r="A72">
         <v>1.641295900499927e+18</v>
       </c>
-      <c r="C72" t="s">
+      <c r="B72" t="s">
         <v>358</v>
       </c>
-      <c r="D72">
+      <c r="C72">
         <v>110167281</v>
       </c>
-      <c r="E72" t="s">
+      <c r="D72" t="s">
         <v>359</v>
       </c>
-      <c r="F72">
+      <c r="E72">
         <v>1.641295900499927e+18</v>
       </c>
+      <c r="F72" t="s">
+        <v>360</v>
+      </c>
       <c r="G72" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H72" t="s">
-        <v>361</v>
-      </c>
-      <c r="I72" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73">
+    <row r="73" spans="1:8">
+      <c r="A73">
         <v>1.641295703032103e+18</v>
       </c>
-      <c r="C73" t="s">
+      <c r="B73" t="s">
         <v>363</v>
       </c>
-      <c r="D73">
+      <c r="C73">
         <v>1.549253229518545e+18</v>
       </c>
-      <c r="E73" t="s">
+      <c r="D73" t="s">
         <v>364</v>
       </c>
-      <c r="F73">
+      <c r="E73">
         <v>1.641295703032103e+18</v>
       </c>
+      <c r="F73" t="s">
+        <v>365</v>
+      </c>
       <c r="G73" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H73" t="s">
-        <v>366</v>
-      </c>
-      <c r="I73" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74">
+    <row r="74" spans="1:8">
+      <c r="A74">
         <v>1.641294576630772e+18</v>
       </c>
-      <c r="C74" t="s">
+      <c r="B74" t="s">
         <v>368</v>
       </c>
-      <c r="D74">
+      <c r="C74">
         <v>7.013122005441208e+17</v>
       </c>
-      <c r="E74" t="s">
+      <c r="D74" t="s">
         <v>369</v>
       </c>
-      <c r="F74">
+      <c r="E74">
         <v>1.641294576630772e+18</v>
       </c>
+      <c r="F74" t="s">
+        <v>370</v>
+      </c>
       <c r="G74" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H74" t="s">
-        <v>371</v>
-      </c>
-      <c r="I74" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75">
+    <row r="75" spans="1:8">
+      <c r="A75">
         <v>1.641294504702644e+18</v>
       </c>
-      <c r="C75" t="s">
+      <c r="B75" t="s">
         <v>373</v>
       </c>
-      <c r="D75">
+      <c r="C75">
         <v>60897995</v>
       </c>
-      <c r="E75" t="s">
+      <c r="D75" t="s">
         <v>374</v>
       </c>
-      <c r="F75">
+      <c r="E75">
         <v>1.641294504702644e+18</v>
       </c>
+      <c r="F75" t="s">
+        <v>375</v>
+      </c>
       <c r="G75" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H75" t="s">
-        <v>376</v>
-      </c>
-      <c r="I75" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76">
+    <row r="76" spans="1:8">
+      <c r="A76">
         <v>1.641292610815001e+18</v>
       </c>
-      <c r="C76" t="s">
+      <c r="B76" t="s">
         <v>378</v>
       </c>
-      <c r="D76">
+      <c r="C76">
         <v>1.074522703275512e+18</v>
       </c>
-      <c r="E76" t="s">
+      <c r="D76" t="s">
         <v>379</v>
       </c>
-      <c r="F76">
+      <c r="E76">
         <v>1.641292610815001e+18</v>
       </c>
+      <c r="F76" t="s">
+        <v>380</v>
+      </c>
       <c r="G76" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H76" t="s">
-        <v>381</v>
-      </c>
-      <c r="I76" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77">
+    <row r="77" spans="1:8">
+      <c r="A77">
         <v>1.641286200584733e+18</v>
       </c>
-      <c r="C77" t="s">
+      <c r="B77" t="s">
         <v>383</v>
       </c>
-      <c r="D77">
+      <c r="C77">
         <v>23749001</v>
       </c>
-      <c r="E77" t="s">
+      <c r="D77" t="s">
         <v>384</v>
       </c>
-      <c r="F77">
+      <c r="E77">
         <v>1.641286200584733e+18</v>
       </c>
+      <c r="F77" t="s">
+        <v>385</v>
+      </c>
       <c r="G77" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H77" t="s">
-        <v>386</v>
-      </c>
-      <c r="I77" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78">
+    <row r="78" spans="1:8">
+      <c r="A78">
         <v>1.64128613015398e+18</v>
       </c>
-      <c r="C78" t="s">
+      <c r="B78" t="s">
         <v>388</v>
       </c>
-      <c r="D78">
+      <c r="C78">
         <v>23749001</v>
       </c>
-      <c r="E78" t="s">
+      <c r="D78" t="s">
         <v>389</v>
       </c>
-      <c r="F78">
+      <c r="E78">
         <v>1.64128613015398e+18</v>
       </c>
+      <c r="F78" t="s">
+        <v>390</v>
+      </c>
       <c r="G78" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H78" t="s">
-        <v>391</v>
-      </c>
-      <c r="I78" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79">
+    <row r="79" spans="1:8">
+      <c r="A79">
         <v>1.641285052515467e+18</v>
       </c>
-      <c r="C79" t="s">
+      <c r="B79" t="s">
         <v>393</v>
       </c>
-      <c r="D79">
+      <c r="C79">
         <v>1495308361</v>
       </c>
-      <c r="E79" t="s">
+      <c r="D79" t="s">
         <v>394</v>
       </c>
-      <c r="F79">
+      <c r="E79">
         <v>1.641285052515467e+18</v>
       </c>
+      <c r="F79" t="s">
+        <v>395</v>
+      </c>
       <c r="G79" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H79" t="s">
-        <v>396</v>
-      </c>
-      <c r="I79" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80">
+    <row r="80" spans="1:8">
+      <c r="A80">
         <v>1.641283236453323e+18</v>
       </c>
-      <c r="C80" t="s">
+      <c r="B80" t="s">
         <v>398</v>
       </c>
-      <c r="D80">
+      <c r="C80">
         <v>1.105473509579403e+18</v>
       </c>
-      <c r="E80" t="s">
+      <c r="D80" t="s">
         <v>399</v>
       </c>
-      <c r="F80">
+      <c r="E80">
         <v>1.641283236453323e+18</v>
       </c>
+      <c r="F80" t="s">
+        <v>400</v>
+      </c>
       <c r="G80" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H80" t="s">
-        <v>401</v>
-      </c>
-      <c r="I80" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81">
+    <row r="81" spans="1:8">
+      <c r="A81">
         <v>1.641283082371342e+18</v>
       </c>
-      <c r="C81" t="s">
+      <c r="B81" t="s">
         <v>403</v>
       </c>
-      <c r="D81">
+      <c r="C81">
         <v>8.612425052657254e+17</v>
       </c>
-      <c r="E81" t="s">
+      <c r="D81" t="s">
         <v>404</v>
       </c>
-      <c r="F81">
+      <c r="E81">
         <v>1.641283082371342e+18</v>
       </c>
+      <c r="F81" t="s">
+        <v>405</v>
+      </c>
       <c r="G81" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H81" t="s">
-        <v>406</v>
-      </c>
-      <c r="I81" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82">
+    <row r="82" spans="1:8">
+      <c r="A82">
         <v>1.641281292334662e+18</v>
       </c>
-      <c r="C82" t="s">
+      <c r="B82" t="s">
         <v>408</v>
       </c>
-      <c r="D82">
+      <c r="C82">
         <v>2788078109</v>
       </c>
-      <c r="E82" t="s">
+      <c r="D82" t="s">
         <v>409</v>
       </c>
-      <c r="F82">
+      <c r="E82">
         <v>1.641281292334662e+18</v>
       </c>
+      <c r="F82" t="s">
+        <v>410</v>
+      </c>
       <c r="G82" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H82" t="s">
-        <v>411</v>
-      </c>
-      <c r="I82" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83">
+    <row r="83" spans="1:8">
+      <c r="A83">
         <v>1.64128064226791e+18</v>
       </c>
-      <c r="C83" t="s">
+      <c r="B83" t="s">
         <v>413</v>
       </c>
-      <c r="D83">
+      <c r="C83">
         <v>1.418951143737147e+18</v>
       </c>
-      <c r="E83" t="s">
+      <c r="D83" t="s">
         <v>414</v>
       </c>
-      <c r="F83">
+      <c r="E83">
         <v>1.64128064226791e+18</v>
       </c>
+      <c r="F83" t="s">
+        <v>415</v>
+      </c>
       <c r="G83" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H83" t="s">
-        <v>416</v>
-      </c>
-      <c r="I83" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84">
+    <row r="84" spans="1:8">
+      <c r="A84">
         <v>1.641280405272924e+18</v>
       </c>
-      <c r="C84" t="s">
+      <c r="B84" t="s">
         <v>418</v>
       </c>
-      <c r="D84">
+      <c r="C84">
         <v>1338880777</v>
       </c>
-      <c r="E84" t="s">
+      <c r="D84" t="s">
         <v>419</v>
       </c>
-      <c r="F84">
+      <c r="E84">
         <v>1.641280405272924e+18</v>
       </c>
+      <c r="F84" t="s">
+        <v>420</v>
+      </c>
       <c r="G84" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H84" t="s">
-        <v>421</v>
-      </c>
-      <c r="I84" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85">
+    <row r="85" spans="1:8">
+      <c r="A85">
         <v>1.641280259025936e+18</v>
       </c>
-      <c r="C85" t="s">
+      <c r="B85" t="s">
         <v>423</v>
       </c>
-      <c r="D85">
+      <c r="C85">
         <v>1.603607019608764e+18</v>
       </c>
-      <c r="E85" t="s">
+      <c r="D85" t="s">
         <v>424</v>
       </c>
-      <c r="F85">
+      <c r="E85">
         <v>1.641280259025936e+18</v>
       </c>
+      <c r="F85" t="s">
+        <v>425</v>
+      </c>
       <c r="G85" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H85" t="s">
-        <v>426</v>
-      </c>
-      <c r="I85" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86">
+    <row r="86" spans="1:8">
+      <c r="A86">
         <v>1.641279472744927e+18</v>
       </c>
-      <c r="C86" t="s">
+      <c r="B86" t="s">
         <v>428</v>
       </c>
-      <c r="D86">
+      <c r="C86">
         <v>149088329</v>
       </c>
-      <c r="E86" t="s">
+      <c r="D86" t="s">
         <v>429</v>
       </c>
-      <c r="F86">
+      <c r="E86">
         <v>1.641279472744927e+18</v>
       </c>
+      <c r="F86" t="s">
+        <v>430</v>
+      </c>
       <c r="G86" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H86" t="s">
-        <v>431</v>
-      </c>
-      <c r="I86" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87">
+    <row r="87" spans="1:8">
+      <c r="A87">
         <v>1.641278948561809e+18</v>
       </c>
-      <c r="C87" t="s">
+      <c r="B87" t="s">
         <v>433</v>
       </c>
-      <c r="D87">
+      <c r="C87">
         <v>42425700</v>
       </c>
-      <c r="E87" t="s">
+      <c r="D87" t="s">
         <v>434</v>
       </c>
-      <c r="F87">
+      <c r="E87">
         <v>1.641278948561809e+18</v>
       </c>
+      <c r="F87" t="s">
+        <v>435</v>
+      </c>
       <c r="G87" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H87" t="s">
-        <v>436</v>
-      </c>
-      <c r="I87" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88">
+    <row r="88" spans="1:8">
+      <c r="A88">
         <v>1.641278365754855e+18</v>
       </c>
-      <c r="C88" t="s">
+      <c r="B88" t="s">
         <v>438</v>
       </c>
-      <c r="D88">
+      <c r="C88">
         <v>831057985</v>
       </c>
-      <c r="E88" t="s">
+      <c r="D88" t="s">
         <v>439</v>
       </c>
-      <c r="F88">
+      <c r="E88">
         <v>1.641278365754855e+18</v>
       </c>
+      <c r="F88" t="s">
+        <v>440</v>
+      </c>
       <c r="G88" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H88" t="s">
-        <v>441</v>
-      </c>
-      <c r="I88" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89">
+    <row r="89" spans="1:8">
+      <c r="A89">
         <v>1.641277612646625e+18</v>
       </c>
-      <c r="C89" t="s">
+      <c r="B89" t="s">
         <v>443</v>
       </c>
-      <c r="D89">
+      <c r="C89">
         <v>568892405</v>
       </c>
-      <c r="E89" t="s">
+      <c r="D89" t="s">
         <v>444</v>
       </c>
-      <c r="F89">
+      <c r="E89">
         <v>1.641277612646625e+18</v>
       </c>
+      <c r="F89" t="s">
+        <v>445</v>
+      </c>
       <c r="G89" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H89" t="s">
-        <v>446</v>
-      </c>
-      <c r="I89" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90">
+    <row r="90" spans="1:8">
+      <c r="A90">
         <v>1.641276103250805e+18</v>
       </c>
-      <c r="C90" t="s">
+      <c r="B90" t="s">
         <v>448</v>
       </c>
-      <c r="D90">
+      <c r="C90">
         <v>1.138968719818863e+18</v>
       </c>
-      <c r="E90" t="s">
+      <c r="D90" t="s">
         <v>449</v>
       </c>
-      <c r="F90">
+      <c r="E90">
         <v>1.641276103250805e+18</v>
       </c>
+      <c r="F90" t="s">
+        <v>450</v>
+      </c>
       <c r="G90" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H90" t="s">
-        <v>451</v>
-      </c>
-      <c r="I90" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91">
+    <row r="91" spans="1:8">
+      <c r="A91">
         <v>1.641274844259168e+18</v>
       </c>
-      <c r="C91" t="s">
+      <c r="B91" t="s">
         <v>453</v>
       </c>
-      <c r="D91">
+      <c r="C91">
         <v>37662400</v>
       </c>
-      <c r="E91" t="s">
+      <c r="D91" t="s">
         <v>454</v>
       </c>
-      <c r="F91">
+      <c r="E91">
         <v>1.641274844259168e+18</v>
       </c>
+      <c r="F91" t="s">
+        <v>455</v>
+      </c>
       <c r="G91" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H91" t="s">
-        <v>456</v>
-      </c>
-      <c r="I91" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92">
+    <row r="92" spans="1:8">
+      <c r="A92">
         <v>1.641274183526253e+18</v>
       </c>
-      <c r="C92" t="s">
+      <c r="B92" t="s">
         <v>458</v>
       </c>
-      <c r="D92">
+      <c r="C92">
         <v>1.586100909423329e+18</v>
       </c>
-      <c r="E92" t="s">
+      <c r="D92" t="s">
         <v>459</v>
       </c>
-      <c r="F92">
+      <c r="E92">
         <v>1.641274183526253e+18</v>
       </c>
+      <c r="F92" t="s">
+        <v>460</v>
+      </c>
       <c r="G92" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H92" t="s">
-        <v>461</v>
-      </c>
-      <c r="I92" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93">
+    <row r="93" spans="1:8">
+      <c r="A93">
         <v>1.641274055331312e+18</v>
       </c>
-      <c r="C93" t="s">
+      <c r="B93" t="s">
         <v>463</v>
       </c>
-      <c r="D93">
+      <c r="C93">
         <v>1662221618</v>
       </c>
-      <c r="E93" t="s">
+      <c r="D93" t="s">
         <v>464</v>
       </c>
-      <c r="F93">
+      <c r="E93">
         <v>1.641274055331312e+18</v>
       </c>
+      <c r="F93" t="s">
+        <v>465</v>
+      </c>
       <c r="G93" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H93" t="s">
-        <v>466</v>
-      </c>
-      <c r="I93" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
+    <row r="94" spans="1:8">
+      <c r="A94">
         <v>1.641273735188476e+18</v>
       </c>
-      <c r="C94" t="s">
+      <c r="B94" t="s">
         <v>468</v>
       </c>
-      <c r="D94">
+      <c r="C94">
         <v>8.655131626777354e+17</v>
       </c>
-      <c r="E94" t="s">
+      <c r="D94" t="s">
         <v>469</v>
       </c>
-      <c r="F94">
+      <c r="E94">
         <v>1.641273735188476e+18</v>
       </c>
+      <c r="F94" t="s">
+        <v>470</v>
+      </c>
       <c r="G94" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H94" t="s">
-        <v>471</v>
-      </c>
-      <c r="I94" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95">
+    <row r="95" spans="1:8">
+      <c r="A95">
         <v>1.641273440056271e+18</v>
       </c>
-      <c r="C95" t="s">
+      <c r="B95" t="s">
         <v>473</v>
       </c>
-      <c r="D95">
+      <c r="C95">
         <v>875525822</v>
       </c>
-      <c r="E95" t="s">
+      <c r="D95" t="s">
         <v>474</v>
       </c>
-      <c r="F95">
+      <c r="E95">
         <v>1.641273440056271e+18</v>
       </c>
+      <c r="F95" t="s">
+        <v>475</v>
+      </c>
       <c r="G95" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H95" t="s">
-        <v>476</v>
-      </c>
-      <c r="I95" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
+    <row r="96" spans="1:8">
+      <c r="A96">
         <v>1.641270662072533e+18</v>
       </c>
-      <c r="C96" t="s">
+      <c r="B96" t="s">
         <v>478</v>
       </c>
-      <c r="D96">
+      <c r="C96">
         <v>1.302265414018163e+18</v>
       </c>
-      <c r="E96" t="s">
+      <c r="D96" t="s">
         <v>479</v>
       </c>
-      <c r="F96">
+      <c r="E96">
         <v>1.641270662072533e+18</v>
       </c>
+      <c r="F96" t="s">
+        <v>480</v>
+      </c>
       <c r="G96" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H96" t="s">
-        <v>481</v>
-      </c>
-      <c r="I96" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
+    <row r="97" spans="1:8">
+      <c r="A97">
         <v>1.641267837699506e+18</v>
       </c>
-      <c r="C97" t="s">
+      <c r="B97" t="s">
         <v>483</v>
       </c>
-      <c r="D97">
+      <c r="C97">
         <v>1.559196143426232e+18</v>
       </c>
-      <c r="E97" t="s">
+      <c r="D97" t="s">
         <v>484</v>
       </c>
-      <c r="F97">
+      <c r="E97">
         <v>1.641267837699506e+18</v>
       </c>
+      <c r="F97" t="s">
+        <v>485</v>
+      </c>
       <c r="G97" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H97" t="s">
-        <v>486</v>
-      </c>
-      <c r="I97" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98">
+    <row r="98" spans="1:8">
+      <c r="A98">
         <v>1.641267527723495e+18</v>
       </c>
-      <c r="C98" t="s">
+      <c r="B98" t="s">
         <v>488</v>
       </c>
-      <c r="D98">
+      <c r="C98">
         <v>4734141073</v>
       </c>
-      <c r="E98" t="s">
+      <c r="D98" t="s">
         <v>489</v>
       </c>
-      <c r="F98">
+      <c r="E98">
         <v>1.641267527723495e+18</v>
       </c>
+      <c r="F98" t="s">
+        <v>490</v>
+      </c>
       <c r="G98" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H98" t="s">
-        <v>491</v>
-      </c>
-      <c r="I98" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99">
+    <row r="99" spans="1:8">
+      <c r="A99">
         <v>1.641267380209983e+18</v>
       </c>
-      <c r="C99" t="s">
+      <c r="B99" t="s">
         <v>493</v>
       </c>
-      <c r="D99">
+      <c r="C99">
         <v>1.602863020438585e+18</v>
       </c>
-      <c r="E99" t="s">
+      <c r="D99" t="s">
         <v>494</v>
       </c>
-      <c r="F99">
+      <c r="E99">
         <v>1.641267380209983e+18</v>
       </c>
+      <c r="F99" t="s">
+        <v>495</v>
+      </c>
       <c r="G99" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H99" t="s">
-        <v>496</v>
-      </c>
-      <c r="I99" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100">
+    <row r="100" spans="1:8">
+      <c r="A100">
         <v>1.641266087085101e+18</v>
       </c>
-      <c r="C100" t="s">
+      <c r="B100" t="s">
         <v>498</v>
       </c>
-      <c r="D100">
+      <c r="C100">
         <v>311667306</v>
       </c>
-      <c r="E100" t="s">
+      <c r="D100" t="s">
         <v>499</v>
       </c>
-      <c r="F100">
+      <c r="E100">
         <v>1.641266087085101e+18</v>
       </c>
+      <c r="F100" t="s">
+        <v>500</v>
+      </c>
       <c r="G100" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H100" t="s">
-        <v>501</v>
-      </c>
-      <c r="I100" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101">
+    <row r="101" spans="1:8">
+      <c r="A101">
         <v>1.641266081011745e+18</v>
       </c>
-      <c r="C101" t="s">
+      <c r="B101" t="s">
         <v>503</v>
       </c>
-      <c r="D101">
+      <c r="C101">
         <v>1.1930387295495e+18</v>
       </c>
-      <c r="E101" t="s">
+      <c r="D101" t="s">
         <v>504</v>
       </c>
-      <c r="F101">
+      <c r="E101">
         <v>1.641266081011745e+18</v>
       </c>
+      <c r="F101" t="s">
+        <v>505</v>
+      </c>
       <c r="G101" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H101" t="s">
-        <v>506</v>
-      </c>
-      <c r="I101" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102">
+    <row r="102" spans="1:8">
+      <c r="A102">
         <v>1.641265851650437e+18</v>
       </c>
-      <c r="C102" t="s">
+      <c r="B102" t="s">
         <v>508</v>
       </c>
-      <c r="D102">
+      <c r="C102">
         <v>124187456</v>
       </c>
-      <c r="E102" t="s">
+      <c r="D102" t="s">
         <v>509</v>
       </c>
-      <c r="F102">
+      <c r="E102">
         <v>1.641265851650437e+18</v>
       </c>
+      <c r="F102" t="s">
+        <v>510</v>
+      </c>
       <c r="G102" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H102" t="s">
-        <v>511</v>
-      </c>
-      <c r="I102" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103">
+    <row r="103" spans="1:8">
+      <c r="A103">
         <v>1.641264983626625e+18</v>
       </c>
-      <c r="C103" t="s">
+      <c r="B103" t="s">
         <v>513</v>
       </c>
-      <c r="D103">
+      <c r="C103">
         <v>1.581252934494323e+18</v>
       </c>
-      <c r="E103" t="s">
+      <c r="D103" t="s">
         <v>514</v>
       </c>
-      <c r="F103">
+      <c r="E103">
         <v>1.641264983626625e+18</v>
       </c>
+      <c r="F103" t="s">
+        <v>515</v>
+      </c>
       <c r="G103" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H103" t="s">
-        <v>516</v>
-      </c>
-      <c r="I103" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104">
+    <row r="104" spans="1:8">
+      <c r="A104">
         <v>1.641264364815786e+18</v>
       </c>
-      <c r="C104" t="s">
+      <c r="B104" t="s">
         <v>518</v>
       </c>
-      <c r="D104">
+      <c r="C104">
         <v>8.99940271424553e+17</v>
       </c>
-      <c r="E104" t="s">
+      <c r="D104" t="s">
         <v>519</v>
       </c>
-      <c r="F104">
+      <c r="E104">
         <v>1.641264364815786e+18</v>
       </c>
+      <c r="F104" t="s">
+        <v>520</v>
+      </c>
       <c r="G104" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H104" t="s">
-        <v>521</v>
-      </c>
-      <c r="I104" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105">
+    <row r="105" spans="1:8">
+      <c r="A105">
         <v>1.641264121533596e+18</v>
       </c>
-      <c r="C105" t="s">
+      <c r="B105" t="s">
         <v>523</v>
       </c>
-      <c r="D105">
+      <c r="C105">
         <v>487663612</v>
       </c>
-      <c r="E105" t="s">
+      <c r="D105" t="s">
         <v>524</v>
       </c>
-      <c r="F105">
+      <c r="E105">
         <v>1.641264121533596e+18</v>
       </c>
+      <c r="F105" t="s">
+        <v>525</v>
+      </c>
       <c r="G105" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H105" t="s">
-        <v>526</v>
-      </c>
-      <c r="I105" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106">
+    <row r="106" spans="1:8">
+      <c r="A106">
         <v>1.641260095563497e+18</v>
       </c>
-      <c r="C106" t="s">
+      <c r="B106" t="s">
         <v>528</v>
       </c>
-      <c r="D106">
+      <c r="C106">
         <v>1.635267839182655e+18</v>
       </c>
-      <c r="E106" t="s">
+      <c r="D106" t="s">
         <v>529</v>
       </c>
-      <c r="F106">
+      <c r="E106">
         <v>1.641263548138652e+18</v>
       </c>
+      <c r="F106" t="s">
+        <v>530</v>
+      </c>
       <c r="G106" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H106" t="s">
-        <v>531</v>
-      </c>
-      <c r="I106" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107">
+    <row r="107" spans="1:8">
+      <c r="A107">
         <v>1.641263477909258e+18</v>
       </c>
-      <c r="C107" t="s">
+      <c r="B107" t="s">
         <v>533</v>
       </c>
-      <c r="D107">
+      <c r="C107">
         <v>8.328348746166149e+17</v>
       </c>
-      <c r="E107" t="s">
+      <c r="D107" t="s">
         <v>534</v>
       </c>
-      <c r="F107">
+      <c r="E107">
         <v>1.641263477909258e+18</v>
       </c>
+      <c r="F107" t="s">
+        <v>535</v>
+      </c>
       <c r="G107" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H107" t="s">
-        <v>536</v>
-      </c>
-      <c r="I107" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108">
+    <row r="108" spans="1:8">
+      <c r="A108">
         <v>1.641262967701524e+18</v>
       </c>
-      <c r="C108" t="s">
+      <c r="B108" t="s">
         <v>538</v>
       </c>
-      <c r="D108">
+      <c r="C108">
         <v>1.535544769459368e+18</v>
       </c>
-      <c r="E108" t="s">
+      <c r="D108" t="s">
         <v>539</v>
       </c>
-      <c r="F108">
+      <c r="E108">
         <v>1.641262967701524e+18</v>
       </c>
+      <c r="F108" t="s">
+        <v>540</v>
+      </c>
       <c r="G108" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H108" t="s">
-        <v>541</v>
-      </c>
-      <c r="I108" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109">
+    <row r="109" spans="1:8">
+      <c r="A109">
         <v>1.64126278612589e+18</v>
       </c>
-      <c r="C109" t="s">
+      <c r="B109" t="s">
         <v>543</v>
       </c>
-      <c r="D109">
+      <c r="C109">
         <v>210792069</v>
       </c>
-      <c r="E109" t="s">
+      <c r="D109" t="s">
         <v>544</v>
       </c>
-      <c r="F109">
+      <c r="E109">
         <v>1.64126278612589e+18</v>
       </c>
+      <c r="F109" t="s">
+        <v>545</v>
+      </c>
       <c r="G109" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H109" t="s">
-        <v>546</v>
-      </c>
-      <c r="I109" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110">
+    <row r="110" spans="1:8">
+      <c r="A110">
         <v>1.641262187397403e+18</v>
       </c>
-      <c r="C110" t="s">
+      <c r="B110" t="s">
         <v>548</v>
       </c>
-      <c r="D110">
+      <c r="C110">
         <v>1.03335768696687e+18</v>
       </c>
-      <c r="E110" t="s">
+      <c r="D110" t="s">
         <v>549</v>
       </c>
-      <c r="F110">
+      <c r="E110">
         <v>1.641262187397403e+18</v>
       </c>
+      <c r="F110" t="s">
+        <v>550</v>
+      </c>
       <c r="G110" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H110" t="s">
-        <v>551</v>
-      </c>
-      <c r="I110" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111">
+    <row r="111" spans="1:8">
+      <c r="A111">
         <v>1.641260343287755e+18</v>
       </c>
-      <c r="C111" t="s">
+      <c r="B111" t="s">
         <v>553</v>
       </c>
-      <c r="D111">
+      <c r="C111">
         <v>16525962</v>
       </c>
-      <c r="E111" t="s">
+      <c r="D111" t="s">
         <v>554</v>
       </c>
-      <c r="F111">
+      <c r="E111">
         <v>1.641261545144426e+18</v>
       </c>
+      <c r="F111" t="s">
+        <v>555</v>
+      </c>
       <c r="G111" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H111" t="s">
-        <v>556</v>
-      </c>
-      <c r="I111" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112">
+    <row r="112" spans="1:8">
+      <c r="A112">
         <v>1.64126149355468e+18</v>
       </c>
-      <c r="C112" t="s">
+      <c r="B112" t="s">
         <v>558</v>
       </c>
-      <c r="D112">
+      <c r="C112">
         <v>1.125218936918643e+18</v>
       </c>
-      <c r="E112" t="s">
+      <c r="D112" t="s">
         <v>559</v>
       </c>
-      <c r="F112">
+      <c r="E112">
         <v>1.64126149355468e+18</v>
       </c>
+      <c r="F112" t="s">
+        <v>560</v>
+      </c>
       <c r="G112" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H112" t="s">
-        <v>561</v>
-      </c>
-      <c r="I112" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113">
+    <row r="113" spans="1:8">
+      <c r="A113">
         <v>1.64126131411816e+18</v>
       </c>
-      <c r="C113" t="s">
+      <c r="B113" t="s">
         <v>563</v>
       </c>
-      <c r="D113">
+      <c r="C113">
         <v>8.371030612144824e+17</v>
       </c>
-      <c r="E113" t="s">
+      <c r="D113" t="s">
         <v>564</v>
       </c>
-      <c r="F113">
+      <c r="E113">
         <v>1.64126131411816e+18</v>
       </c>
+      <c r="F113" t="s">
+        <v>565</v>
+      </c>
       <c r="G113" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H113" t="s">
-        <v>566</v>
-      </c>
-      <c r="I113" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114">
+    <row r="114" spans="1:8">
+      <c r="A114">
         <v>1.641260752857367e+18</v>
       </c>
-      <c r="C114" t="s">
+      <c r="B114" t="s">
         <v>568</v>
       </c>
-      <c r="D114">
+      <c r="C114">
         <v>1.579329564660347e+18</v>
       </c>
-      <c r="E114" t="s">
+      <c r="D114" t="s">
         <v>569</v>
       </c>
-      <c r="F114">
+      <c r="E114">
         <v>1.641260752857367e+18</v>
       </c>
+      <c r="F114" t="s">
+        <v>570</v>
+      </c>
       <c r="G114" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H114" t="s">
-        <v>571</v>
-      </c>
-      <c r="I114" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115">
+    <row r="115" spans="1:8">
+      <c r="A115">
         <v>1.641260095563497e+18</v>
       </c>
-      <c r="C115" t="s">
+      <c r="B115" t="s">
         <v>573</v>
       </c>
-      <c r="D115">
+      <c r="C115">
         <v>28940967</v>
       </c>
-      <c r="E115" t="s">
+      <c r="D115" t="s">
         <v>574</v>
       </c>
-      <c r="F115">
+      <c r="E115">
         <v>1.641260095563497e+18</v>
       </c>
+      <c r="F115" t="s">
+        <v>575</v>
+      </c>
       <c r="G115" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H115" t="s">
-        <v>576</v>
-      </c>
-      <c r="I115" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116">
+    <row r="116" spans="1:8">
+      <c r="A116">
         <v>1.64125940643543e+18</v>
       </c>
-      <c r="C116" t="s">
+      <c r="B116" t="s">
         <v>578</v>
       </c>
-      <c r="D116">
+      <c r="C116">
         <v>166776293</v>
       </c>
-      <c r="E116" t="s">
+      <c r="D116" t="s">
         <v>579</v>
       </c>
-      <c r="F116">
+      <c r="E116">
         <v>1.64125940643543e+18</v>
       </c>
+      <c r="F116" t="s">
+        <v>580</v>
+      </c>
       <c r="G116" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H116" t="s">
-        <v>581</v>
-      </c>
-      <c r="I116" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117">
+    <row r="117" spans="1:8">
+      <c r="A117">
         <v>1.641259248956097e+18</v>
       </c>
-      <c r="C117" t="s">
+      <c r="B117" t="s">
         <v>583</v>
       </c>
-      <c r="D117">
+      <c r="C117">
         <v>1.529670402100052e+18</v>
       </c>
-      <c r="E117" t="s">
+      <c r="D117" t="s">
         <v>584</v>
       </c>
-      <c r="F117">
+      <c r="E117">
         <v>1.641259248956097e+18</v>
       </c>
+      <c r="F117" t="s">
+        <v>585</v>
+      </c>
       <c r="G117" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H117" t="s">
-        <v>586</v>
-      </c>
-      <c r="I117" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118">
+    <row r="118" spans="1:8">
+      <c r="A118">
         <v>1.641258949016994e+18</v>
       </c>
-      <c r="C118" t="s">
+      <c r="B118" t="s">
         <v>588</v>
       </c>
-      <c r="D118">
+      <c r="C118">
         <v>3232393554</v>
       </c>
-      <c r="E118" t="s">
+      <c r="D118" t="s">
         <v>589</v>
       </c>
-      <c r="F118">
+      <c r="E118">
         <v>1.641258949016994e+18</v>
       </c>
+      <c r="F118" t="s">
+        <v>590</v>
+      </c>
       <c r="G118" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H118" t="s">
-        <v>591</v>
-      </c>
-      <c r="I118" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119">
+    <row r="119" spans="1:8">
+      <c r="A119">
         <v>1.641258420744638e+18</v>
       </c>
-      <c r="C119" t="s">
+      <c r="B119" t="s">
         <v>593</v>
       </c>
-      <c r="D119">
+      <c r="C119">
         <v>327987697</v>
       </c>
-      <c r="E119" t="s">
+      <c r="D119" t="s">
         <v>594</v>
       </c>
-      <c r="F119">
+      <c r="E119">
         <v>1.641258420744638e+18</v>
       </c>
+      <c r="F119" t="s">
+        <v>595</v>
+      </c>
       <c r="G119" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H119" t="s">
-        <v>596</v>
-      </c>
-      <c r="I119" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120">
+    <row r="120" spans="1:8">
+      <c r="A120">
         <v>1.641186378376684e+18</v>
       </c>
-      <c r="C120" t="s">
+      <c r="B120" t="s">
         <v>598</v>
       </c>
-      <c r="D120">
+      <c r="C120">
         <v>1.070464614167532e+18</v>
       </c>
-      <c r="E120" t="s">
+      <c r="D120" t="s">
         <v>599</v>
       </c>
-      <c r="F120">
+      <c r="E120">
         <v>1.641227350481461e+18</v>
       </c>
+      <c r="F120" t="s">
+        <v>600</v>
+      </c>
       <c r="G120" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H120" t="s">
-        <v>601</v>
-      </c>
-      <c r="I120" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121">
+    <row r="121" spans="1:8">
+      <c r="A121">
         <v>1.641134983963083e+18</v>
       </c>
-      <c r="C121" t="s">
+      <c r="B121" t="s">
         <v>603</v>
       </c>
-      <c r="D121">
+      <c r="C121">
         <v>2795288953</v>
       </c>
-      <c r="E121" t="s">
+      <c r="D121" t="s">
         <v>604</v>
       </c>
-      <c r="F121">
+      <c r="E121">
         <v>1.641134983963083e+18</v>
       </c>
+      <c r="F121" t="s">
+        <v>605</v>
+      </c>
       <c r="G121" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H121" t="s">
-        <v>606</v>
-      </c>
-      <c r="I121" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122">
+    <row r="122" spans="1:8">
+      <c r="A122">
         <v>1.641129158288998e+18</v>
       </c>
-      <c r="C122" t="s">
+      <c r="B122" t="s">
         <v>608</v>
       </c>
-      <c r="D122">
+      <c r="C122">
         <v>1.182103663646429e+18</v>
       </c>
-      <c r="E122" t="s">
+      <c r="D122" t="s">
         <v>609</v>
       </c>
-      <c r="F122">
+      <c r="E122">
         <v>1.641129158288998e+18</v>
       </c>
+      <c r="F122" t="s">
+        <v>610</v>
+      </c>
       <c r="G122" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H122" t="s">
-        <v>611</v>
-      </c>
-      <c r="I122" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123">
+    <row r="123" spans="1:8">
+      <c r="A123">
         <v>1.641110898990281e+18</v>
       </c>
-      <c r="C123" t="s">
+      <c r="B123" t="s">
         <v>613</v>
       </c>
-      <c r="D123">
+      <c r="C123">
         <v>759385489</v>
       </c>
-      <c r="E123" t="s">
+      <c r="D123" t="s">
         <v>614</v>
       </c>
-      <c r="F123">
+      <c r="E123">
         <v>1.641110898990281e+18</v>
       </c>
+      <c r="F123" t="s">
+        <v>615</v>
+      </c>
       <c r="G123" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H123" t="s">
-        <v>616</v>
-      </c>
-      <c r="I123" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124">
+    <row r="124" spans="1:8">
+      <c r="A124">
         <v>1.641106436796355e+18</v>
       </c>
-      <c r="C124" t="s">
+      <c r="B124" t="s">
         <v>618</v>
       </c>
-      <c r="D124">
+      <c r="C124">
         <v>1.637496038381736e+18</v>
       </c>
-      <c r="E124" t="s">
+      <c r="D124" t="s">
         <v>619</v>
       </c>
-      <c r="F124">
+      <c r="E124">
         <v>1.641106436796355e+18</v>
       </c>
+      <c r="F124" t="s">
+        <v>620</v>
+      </c>
       <c r="G124" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H124" t="s">
-        <v>621</v>
-      </c>
-      <c r="I124" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125">
+    <row r="125" spans="1:8">
+      <c r="A125">
         <v>1.64109886759594e+18</v>
       </c>
-      <c r="C125" t="s">
+      <c r="B125" t="s">
         <v>623</v>
       </c>
-      <c r="D125">
+      <c r="C125">
         <v>1.218901281231655e+18</v>
       </c>
-      <c r="E125" t="s">
+      <c r="D125" t="s">
         <v>624</v>
       </c>
-      <c r="F125">
+      <c r="E125">
         <v>1.64109886759594e+18</v>
       </c>
+      <c r="F125" t="s">
+        <v>625</v>
+      </c>
       <c r="G125" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H125" t="s">
-        <v>626</v>
-      </c>
-      <c r="I125" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126">
+    <row r="126" spans="1:8">
+      <c r="A126">
         <v>1.64109661749026e+18</v>
       </c>
-      <c r="C126" t="s">
+      <c r="B126" t="s">
         <v>628</v>
       </c>
-      <c r="D126">
+      <c r="C126">
         <v>7.207722415169413e+17</v>
       </c>
-      <c r="E126" t="s">
+      <c r="D126" t="s">
         <v>629</v>
       </c>
-      <c r="F126">
+      <c r="E126">
         <v>1.64109661749026e+18</v>
       </c>
+      <c r="F126" t="s">
+        <v>630</v>
+      </c>
       <c r="G126" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H126" t="s">
-        <v>631</v>
-      </c>
-      <c r="I126" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127">
+    <row r="127" spans="1:8">
+      <c r="A127">
         <v>1.640993588023812e+18</v>
       </c>
-      <c r="C127" t="s">
+      <c r="B127" t="s">
         <v>633</v>
       </c>
-      <c r="D127">
+      <c r="C127">
         <v>7.207722415169413e+17</v>
       </c>
-      <c r="E127" t="s">
+      <c r="D127" t="s">
         <v>634</v>
       </c>
-      <c r="F127">
+      <c r="E127">
         <v>1.641096575786303e+18</v>
       </c>
+      <c r="F127" t="s">
+        <v>635</v>
+      </c>
       <c r="G127" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H127" t="s">
-        <v>636</v>
-      </c>
-      <c r="I127" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128">
+    <row r="128" spans="1:8">
+      <c r="A128">
         <v>1.641091433334718e+18</v>
       </c>
-      <c r="C128" t="s">
+      <c r="B128" t="s">
         <v>638</v>
       </c>
-      <c r="D128">
+      <c r="C128">
         <v>1.327555158264353e+18</v>
       </c>
-      <c r="E128" t="s">
+      <c r="D128" t="s">
         <v>639</v>
       </c>
-      <c r="F128">
+      <c r="E128">
         <v>1.641091433334718e+18</v>
       </c>
+      <c r="F128" t="s">
+        <v>640</v>
+      </c>
       <c r="G128" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H128" t="s">
-        <v>641</v>
-      </c>
-      <c r="I128" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129">
+    <row r="129" spans="1:8">
+      <c r="A129">
         <v>1.641021130554106e+18</v>
       </c>
-      <c r="C129" t="s">
+      <c r="B129" t="s">
         <v>643</v>
       </c>
-      <c r="D129">
+      <c r="C129">
         <v>1.517160372511584e+18</v>
       </c>
-      <c r="E129" t="s">
+      <c r="D129" t="s">
         <v>644</v>
       </c>
-      <c r="F129">
+      <c r="E129">
         <v>1.64108017052101e+18</v>
       </c>
+      <c r="F129" t="s">
+        <v>645</v>
+      </c>
       <c r="G129" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H129" t="s">
-        <v>646</v>
-      </c>
-      <c r="I129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130">
+    <row r="130" spans="1:8">
+      <c r="A130">
         <v>1.641064964969615e+18</v>
       </c>
-      <c r="C130" t="s">
+      <c r="B130" t="s">
         <v>648</v>
       </c>
-      <c r="D130">
+      <c r="C130">
         <v>1.238831198513832e+18</v>
       </c>
-      <c r="E130" t="s">
+      <c r="D130" t="s">
         <v>649</v>
       </c>
-      <c r="F130">
+      <c r="E130">
         <v>1.641064964969615e+18</v>
       </c>
+      <c r="F130" t="s">
+        <v>650</v>
+      </c>
       <c r="G130" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H130" t="s">
-        <v>651</v>
-      </c>
-      <c r="I130" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131">
+    <row r="131" spans="1:8">
+      <c r="A131">
         <v>1.641026968698204e+18</v>
       </c>
-      <c r="C131" t="s">
+      <c r="B131" t="s">
         <v>653</v>
       </c>
-      <c r="D131">
+      <c r="C131">
         <v>8.274947252172513e+17</v>
       </c>
-      <c r="E131" t="s">
+      <c r="D131" t="s">
         <v>654</v>
       </c>
-      <c r="F131">
+      <c r="E131">
         <v>1.641061003923427e+18</v>
       </c>
+      <c r="F131" t="s">
+        <v>655</v>
+      </c>
       <c r="G131" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H131" t="s">
-        <v>656</v>
-      </c>
-      <c r="I131" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132">
+    <row r="132" spans="1:8">
+      <c r="A132">
         <v>1.641056141642793e+18</v>
       </c>
-      <c r="C132" t="s">
+      <c r="B132" t="s">
         <v>658</v>
       </c>
-      <c r="D132">
+      <c r="C132">
         <v>1698453373</v>
       </c>
-      <c r="E132" t="s">
+      <c r="D132" t="s">
         <v>659</v>
       </c>
-      <c r="F132">
+      <c r="E132">
         <v>1.641056141642793e+18</v>
       </c>
+      <c r="F132" t="s">
+        <v>660</v>
+      </c>
       <c r="G132" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H132" t="s">
-        <v>661</v>
-      </c>
-      <c r="I132" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133">
+    <row r="133" spans="1:8">
+      <c r="A133">
         <v>1.641055945198273e+18</v>
       </c>
-      <c r="C133" t="s">
+      <c r="B133" t="s">
         <v>663</v>
       </c>
-      <c r="D133">
+      <c r="C133">
         <v>4867870409</v>
       </c>
-      <c r="E133" t="s">
+      <c r="D133" t="s">
         <v>664</v>
       </c>
-      <c r="F133">
+      <c r="E133">
         <v>1.641055945198273e+18</v>
       </c>
+      <c r="F133" t="s">
+        <v>665</v>
+      </c>
       <c r="G133" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H133" t="s">
-        <v>666</v>
-      </c>
-      <c r="I133" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134">
+    <row r="134" spans="1:8">
+      <c r="A134">
         <v>1.641031711566725e+18</v>
       </c>
-      <c r="C134" t="s">
+      <c r="B134" t="s">
         <v>668</v>
       </c>
-      <c r="D134">
+      <c r="C134">
         <v>1.53223581899511e+18</v>
       </c>
-      <c r="E134" t="s">
+      <c r="D134" t="s">
         <v>669</v>
       </c>
-      <c r="F134">
+      <c r="E134">
         <v>1.641039846578991e+18</v>
       </c>
+      <c r="F134" t="s">
+        <v>670</v>
+      </c>
       <c r="G134" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H134" t="s">
-        <v>671</v>
-      </c>
-      <c r="I134" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135">
+    <row r="135" spans="1:8">
+      <c r="A135">
         <v>1.641028904256172e+18</v>
       </c>
-      <c r="C135" t="s">
+      <c r="B135" t="s">
         <v>673</v>
       </c>
-      <c r="D135">
+      <c r="C135">
         <v>1.259822443696402e+18</v>
       </c>
-      <c r="E135" t="s">
+      <c r="D135" t="s">
         <v>674</v>
       </c>
-      <c r="F135">
+      <c r="E135">
         <v>1.641028904256172e+18</v>
       </c>
+      <c r="F135" t="s">
+        <v>675</v>
+      </c>
       <c r="G135" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H135" t="s">
-        <v>676</v>
-      </c>
-      <c r="I135" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136">
+    <row r="136" spans="1:8">
+      <c r="A136">
         <v>1.641020074051133e+18</v>
       </c>
-      <c r="C136" t="s">
+      <c r="B136" t="s">
         <v>678</v>
       </c>
-      <c r="D136">
+      <c r="C136">
         <v>2418859497</v>
       </c>
-      <c r="E136" t="s">
+      <c r="D136" t="s">
         <v>679</v>
       </c>
-      <c r="F136">
+      <c r="E136">
         <v>1.641020074051133e+18</v>
       </c>
+      <c r="F136" t="s">
+        <v>680</v>
+      </c>
       <c r="G136" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H136" t="s">
-        <v>681</v>
-      </c>
-      <c r="I136" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137">
+    <row r="137" spans="1:8">
+      <c r="A137">
         <v>1.641012417927807e+18</v>
       </c>
-      <c r="C137" t="s">
+      <c r="B137" t="s">
         <v>683</v>
       </c>
-      <c r="D137">
+      <c r="C137">
         <v>19016477</v>
       </c>
-      <c r="E137" t="s">
+      <c r="D137" t="s">
         <v>684</v>
       </c>
-      <c r="F137">
+      <c r="E137">
         <v>1.641012417927807e+18</v>
       </c>
+      <c r="F137" t="s">
+        <v>685</v>
+      </c>
       <c r="G137" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H137" t="s">
-        <v>686</v>
-      </c>
-      <c r="I137" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138">
+    <row r="138" spans="1:8">
+      <c r="A138">
         <v>1.641007207604175e+18</v>
       </c>
-      <c r="C138" t="s">
+      <c r="B138" t="s">
         <v>688</v>
       </c>
-      <c r="D138">
+      <c r="C138">
         <v>9.061858198361866e+17</v>
       </c>
-      <c r="E138" t="s">
+      <c r="D138" t="s">
         <v>689</v>
       </c>
-      <c r="F138">
+      <c r="E138">
         <v>1.641007207604175e+18</v>
       </c>
+      <c r="F138" t="s">
+        <v>690</v>
+      </c>
       <c r="G138" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H138" t="s">
-        <v>691</v>
-      </c>
-      <c r="I138" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139">
+    <row r="139" spans="1:8">
+      <c r="A139">
         <v>1.641006346018644e+18</v>
       </c>
-      <c r="C139" t="s">
+      <c r="B139" t="s">
         <v>693</v>
       </c>
-      <c r="D139">
+      <c r="C139">
         <v>1.307683242653266e+18</v>
       </c>
-      <c r="E139" t="s">
+      <c r="D139" t="s">
         <v>694</v>
       </c>
-      <c r="F139">
+      <c r="E139">
         <v>1.641006346018644e+18</v>
       </c>
+      <c r="F139" t="s">
+        <v>695</v>
+      </c>
       <c r="G139" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H139" t="s">
-        <v>696</v>
-      </c>
-      <c r="I139" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140">
+    <row r="140" spans="1:8">
+      <c r="A140">
         <v>1.641005757280965e+18</v>
       </c>
-      <c r="C140" t="s">
+      <c r="B140" t="s">
         <v>698</v>
       </c>
-      <c r="D140">
+      <c r="C140">
         <v>3026990185</v>
       </c>
-      <c r="E140" t="s">
+      <c r="D140" t="s">
         <v>699</v>
       </c>
-      <c r="F140">
+      <c r="E140">
         <v>1.641005757280965e+18</v>
       </c>
+      <c r="F140" t="s">
+        <v>700</v>
+      </c>
       <c r="G140" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H140" t="s">
-        <v>701</v>
-      </c>
-      <c r="I140" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141">
+    <row r="141" spans="1:8">
+      <c r="A141">
         <v>1.640990698571743e+18</v>
       </c>
-      <c r="C141" t="s">
+      <c r="B141" t="s">
         <v>703</v>
       </c>
-      <c r="D141">
+      <c r="C141">
         <v>1338880777</v>
       </c>
-      <c r="E141" t="s">
+      <c r="D141" t="s">
         <v>704</v>
       </c>
-      <c r="F141">
+      <c r="E141">
         <v>1.640990698571743e+18</v>
       </c>
+      <c r="F141" t="s">
+        <v>705</v>
+      </c>
       <c r="G141" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H141" t="s">
-        <v>706</v>
-      </c>
-      <c r="I141" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142">
+    <row r="142" spans="1:8">
+      <c r="A142">
         <v>1.640990037243474e+18</v>
       </c>
-      <c r="C142" t="s">
+      <c r="B142" t="s">
         <v>708</v>
       </c>
-      <c r="D142">
+      <c r="C142">
         <v>1.602863020438585e+18</v>
       </c>
-      <c r="E142" t="s">
+      <c r="D142" t="s">
         <v>709</v>
       </c>
-      <c r="F142">
+      <c r="E142">
         <v>1.640990037243474e+18</v>
       </c>
+      <c r="F142" t="s">
+        <v>710</v>
+      </c>
       <c r="G142" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H142" t="s">
-        <v>711</v>
-      </c>
-      <c r="I142" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143">
+    <row r="143" spans="1:8">
+      <c r="A143">
         <v>1.640985480782131e+18</v>
       </c>
-      <c r="C143" t="s">
+      <c r="B143" t="s">
         <v>713</v>
       </c>
-      <c r="D143">
+      <c r="C143">
         <v>111903594</v>
       </c>
-      <c r="E143" t="s">
+      <c r="D143" t="s">
         <v>714</v>
       </c>
-      <c r="F143">
+      <c r="E143">
         <v>1.640985480782131e+18</v>
       </c>
+      <c r="F143" t="s">
+        <v>715</v>
+      </c>
       <c r="G143" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H143" t="s">
-        <v>716</v>
-      </c>
-      <c r="I143" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144">
+    <row r="144" spans="1:8">
+      <c r="A144">
         <v>1.640973733375652e+18</v>
       </c>
-      <c r="C144" t="s">
+      <c r="B144" t="s">
         <v>718</v>
       </c>
-      <c r="D144">
+      <c r="C144">
         <v>1.220023920234942e+18</v>
       </c>
-      <c r="E144" t="s">
+      <c r="D144" t="s">
         <v>719</v>
       </c>
-      <c r="F144">
+      <c r="E144">
         <v>1.640973733375652e+18</v>
       </c>
+      <c r="F144" t="s">
+        <v>720</v>
+      </c>
       <c r="G144" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H144" t="s">
-        <v>721</v>
-      </c>
-      <c r="I144" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145">
+    <row r="145" spans="1:8">
+      <c r="A145">
         <v>1.64097341857638e+18</v>
       </c>
-      <c r="C145" t="s">
+      <c r="B145" t="s">
         <v>723</v>
       </c>
-      <c r="D145">
+      <c r="C145">
         <v>111903594</v>
       </c>
-      <c r="E145" t="s">
+      <c r="D145" t="s">
         <v>724</v>
       </c>
-      <c r="F145">
+      <c r="E145">
         <v>1.64097341857638e+18</v>
       </c>
+      <c r="F145" t="s">
+        <v>725</v>
+      </c>
       <c r="G145" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H145" t="s">
-        <v>726</v>
-      </c>
-      <c r="I145" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146">
+    <row r="146" spans="1:8">
+      <c r="A146">
         <v>1.640971916889694e+18</v>
       </c>
-      <c r="C146" t="s">
+      <c r="B146" t="s">
         <v>728</v>
       </c>
-      <c r="D146">
+      <c r="C146">
         <v>1.162532347276739e+18</v>
       </c>
-      <c r="E146" t="s">
+      <c r="D146" t="s">
         <v>729</v>
       </c>
-      <c r="F146">
+      <c r="E146">
         <v>1.640971916889694e+18</v>
       </c>
+      <c r="F146" t="s">
+        <v>730</v>
+      </c>
       <c r="G146" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H146" t="s">
-        <v>731</v>
-      </c>
-      <c r="I146" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147">
+    <row r="147" spans="1:8">
+      <c r="A147">
         <v>1.640967199279186e+18</v>
       </c>
-      <c r="C147" t="s">
+      <c r="B147" t="s">
         <v>733</v>
       </c>
-      <c r="D147">
+      <c r="C147">
         <v>1.302265414018163e+18</v>
       </c>
-      <c r="E147" t="s">
+      <c r="D147" t="s">
         <v>734</v>
       </c>
-      <c r="F147">
+      <c r="E147">
         <v>1.640967199279186e+18</v>
       </c>
+      <c r="F147" t="s">
+        <v>735</v>
+      </c>
       <c r="G147" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H147" t="s">
-        <v>736</v>
-      </c>
-      <c r="I147" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148">
+    <row r="148" spans="1:8">
+      <c r="A148">
         <v>1.640963868917678e+18</v>
       </c>
-      <c r="C148" t="s">
+      <c r="B148" t="s">
         <v>738</v>
       </c>
-      <c r="D148">
+      <c r="C148">
         <v>1.141836296903692e+18</v>
       </c>
-      <c r="E148" t="s">
+      <c r="D148" t="s">
         <v>739</v>
       </c>
-      <c r="F148">
+      <c r="E148">
         <v>1.640963868917678e+18</v>
       </c>
+      <c r="F148" t="s">
+        <v>740</v>
+      </c>
       <c r="G148" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H148" t="s">
-        <v>741</v>
-      </c>
-      <c r="I148" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149">
+    <row r="149" spans="1:8">
+      <c r="A149">
         <v>1.640963709882479e+18</v>
       </c>
-      <c r="C149" t="s">
+      <c r="B149" t="s">
         <v>743</v>
       </c>
-      <c r="D149">
+      <c r="C149">
         <v>1.163652005203571e+18</v>
       </c>
-      <c r="E149" t="s">
+      <c r="D149" t="s">
         <v>744</v>
       </c>
-      <c r="F149">
+      <c r="E149">
         <v>1.640963709882479e+18</v>
       </c>
+      <c r="F149" t="s">
+        <v>745</v>
+      </c>
       <c r="G149" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H149" t="s">
-        <v>746</v>
-      </c>
-      <c r="I149" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150">
+    <row r="150" spans="1:8">
+      <c r="A150">
         <v>1.640960109416423e+18</v>
       </c>
-      <c r="C150" t="s">
+      <c r="B150" t="s">
         <v>748</v>
       </c>
-      <c r="D150">
+      <c r="C150">
         <v>7.640091411404923e+17</v>
       </c>
-      <c r="E150" t="s">
+      <c r="D150" t="s">
         <v>749</v>
       </c>
-      <c r="F150">
+      <c r="E150">
         <v>1.640960109416423e+18</v>
       </c>
+      <c r="F150" t="s">
+        <v>750</v>
+      </c>
       <c r="G150" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H150" t="s">
-        <v>751</v>
-      </c>
-      <c r="I150" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151">
+    <row r="151" spans="1:8">
+      <c r="A151">
         <v>1.640955147734983e+18</v>
       </c>
-      <c r="C151" t="s">
+      <c r="B151" t="s">
         <v>753</v>
       </c>
-      <c r="D151">
+      <c r="C151">
         <v>35148873</v>
       </c>
-      <c r="E151" t="s">
+      <c r="D151" t="s">
         <v>754</v>
       </c>
-      <c r="F151">
+      <c r="E151">
         <v>1.640955147734983e+18</v>
       </c>
+      <c r="F151" t="s">
+        <v>755</v>
+      </c>
       <c r="G151" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H151" t="s">
-        <v>756</v>
-      </c>
-      <c r="I151" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152">
+    <row r="152" spans="1:8">
+      <c r="A152">
         <v>1.640948277976891e+18</v>
       </c>
-      <c r="C152" t="s">
+      <c r="B152" t="s">
         <v>758</v>
       </c>
-      <c r="D152">
+      <c r="C152">
         <v>1.499736887476748e+18</v>
       </c>
-      <c r="E152" t="s">
+      <c r="D152" t="s">
         <v>759</v>
       </c>
-      <c r="F152">
+      <c r="E152">
         <v>1.640948277976891e+18</v>
       </c>
+      <c r="F152" t="s">
+        <v>760</v>
+      </c>
       <c r="G152" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H152" t="s">
-        <v>761</v>
-      </c>
-      <c r="I152" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153">
+    <row r="153" spans="1:8">
+      <c r="A153">
         <v>1.640946469598376e+18</v>
       </c>
-      <c r="C153" t="s">
+      <c r="B153" t="s">
         <v>763</v>
       </c>
-      <c r="D153">
+      <c r="C153">
         <v>1.284513869713379e+18</v>
       </c>
-      <c r="E153" t="s">
+      <c r="D153" t="s">
         <v>764</v>
       </c>
-      <c r="F153">
+      <c r="E153">
         <v>1.640946469598376e+18</v>
       </c>
+      <c r="F153" t="s">
+        <v>765</v>
+      </c>
       <c r="G153" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H153" t="s">
-        <v>766</v>
-      </c>
-      <c r="I153" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154">
+    <row r="154" spans="1:8">
+      <c r="A154">
         <v>1.640942204075262e+18</v>
       </c>
-      <c r="C154" t="s">
+      <c r="B154" t="s">
         <v>768</v>
       </c>
-      <c r="D154">
+      <c r="C154">
         <v>7.198869303396352e+17</v>
       </c>
-      <c r="E154" t="s">
+      <c r="D154" t="s">
         <v>769</v>
       </c>
-      <c r="F154">
+      <c r="E154">
         <v>1.640942204075262e+18</v>
       </c>
+      <c r="F154" t="s">
+        <v>770</v>
+      </c>
       <c r="G154" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H154" t="s">
-        <v>771</v>
-      </c>
-      <c r="I154" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155">
+    <row r="155" spans="1:8">
+      <c r="A155">
         <v>1.640941198360838e+18</v>
       </c>
-      <c r="C155" t="s">
+      <c r="B155" t="s">
         <v>773</v>
       </c>
-      <c r="D155">
+      <c r="C155">
         <v>4702957434</v>
       </c>
-      <c r="E155" t="s">
+      <c r="D155" t="s">
         <v>774</v>
       </c>
-      <c r="F155">
+      <c r="E155">
         <v>1.640941198360838e+18</v>
       </c>
+      <c r="F155" t="s">
+        <v>775</v>
+      </c>
       <c r="G155" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H155" t="s">
-        <v>776</v>
-      </c>
-      <c r="I155" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156">
+    <row r="156" spans="1:8">
+      <c r="A156">
         <v>1.640937538687848e+18</v>
       </c>
-      <c r="C156" t="s">
+      <c r="B156" t="s">
         <v>778</v>
       </c>
-      <c r="D156">
+      <c r="C156">
         <v>7.812265345520312e+17</v>
       </c>
-      <c r="E156" t="s">
+      <c r="D156" t="s">
         <v>779</v>
       </c>
-      <c r="F156">
+      <c r="E156">
         <v>1.640937538687848e+18</v>
       </c>
+      <c r="F156" t="s">
+        <v>780</v>
+      </c>
       <c r="G156" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H156" t="s">
-        <v>781</v>
-      </c>
-      <c r="I156" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157">
+    <row r="157" spans="1:8">
+      <c r="A157">
         <v>1.640933231532057e+18</v>
       </c>
-      <c r="C157" t="s">
+      <c r="B157" t="s">
         <v>783</v>
       </c>
-      <c r="D157">
+      <c r="C157">
         <v>1.072997660833894e+18</v>
       </c>
-      <c r="E157" t="s">
+      <c r="D157" t="s">
         <v>784</v>
       </c>
-      <c r="F157">
+      <c r="E157">
         <v>1.640933231532057e+18</v>
       </c>
+      <c r="F157" t="s">
+        <v>785</v>
+      </c>
       <c r="G157" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H157" t="s">
-        <v>786</v>
-      </c>
-      <c r="I157" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158">
+    <row r="158" spans="1:8">
+      <c r="A158">
         <v>1.640925463035142e+18</v>
       </c>
-      <c r="C158" t="s">
+      <c r="B158" t="s">
         <v>788</v>
       </c>
-      <c r="D158">
+      <c r="C158">
         <v>2788078109</v>
       </c>
-      <c r="E158" t="s">
+      <c r="D158" t="s">
         <v>789</v>
       </c>
-      <c r="F158">
+      <c r="E158">
         <v>1.640925463035142e+18</v>
       </c>
+      <c r="F158" t="s">
+        <v>790</v>
+      </c>
       <c r="G158" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H158" t="s">
-        <v>791</v>
-      </c>
-      <c r="I158" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159">
+    <row r="159" spans="1:8">
+      <c r="A159">
         <v>1.640919088884257e+18</v>
       </c>
-      <c r="C159" t="s">
+      <c r="B159" t="s">
         <v>793</v>
       </c>
-      <c r="D159">
+      <c r="C159">
         <v>307298465</v>
       </c>
-      <c r="E159" t="s">
+      <c r="D159" t="s">
         <v>794</v>
       </c>
-      <c r="F159">
+      <c r="E159">
         <v>1.640919088884257e+18</v>
       </c>
+      <c r="F159" t="s">
+        <v>795</v>
+      </c>
       <c r="G159" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H159" t="s">
-        <v>796</v>
-      </c>
-      <c r="I159" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160">
+    <row r="160" spans="1:8">
+      <c r="A160">
         <v>1.640918969103315e+18</v>
       </c>
-      <c r="C160" t="s">
+      <c r="B160" t="s">
         <v>798</v>
       </c>
-      <c r="D160">
+      <c r="C160">
         <v>1.603607019608764e+18</v>
       </c>
-      <c r="E160" t="s">
+      <c r="D160" t="s">
         <v>799</v>
       </c>
-      <c r="F160">
+      <c r="E160">
         <v>1.640918969103315e+18</v>
       </c>
+      <c r="F160" t="s">
+        <v>800</v>
+      </c>
       <c r="G160" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H160" t="s">
-        <v>801</v>
-      </c>
-      <c r="I160" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161">
+    <row r="161" spans="1:8">
+      <c r="A161">
         <v>1.640909228306231e+18</v>
       </c>
-      <c r="C161" t="s">
+      <c r="B161" t="s">
         <v>803</v>
       </c>
-      <c r="D161">
+      <c r="C161">
         <v>1963702566</v>
       </c>
-      <c r="E161" t="s">
+      <c r="D161" t="s">
         <v>804</v>
       </c>
-      <c r="F161">
+      <c r="E161">
         <v>1.640909228306231e+18</v>
       </c>
+      <c r="F161" t="s">
+        <v>805</v>
+      </c>
       <c r="G161" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H161" t="s">
-        <v>806</v>
-      </c>
-      <c r="I161" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162">
+    <row r="162" spans="1:8">
+      <c r="A162">
         <v>1.640907025512296e+18</v>
       </c>
-      <c r="C162" t="s">
+      <c r="B162" t="s">
         <v>808</v>
       </c>
-      <c r="D162">
+      <c r="C162">
         <v>18680121</v>
       </c>
-      <c r="E162" t="s">
+      <c r="D162" t="s">
         <v>809</v>
       </c>
-      <c r="F162">
+      <c r="E162">
         <v>1.640907025512296e+18</v>
       </c>
+      <c r="F162" t="s">
+        <v>810</v>
+      </c>
       <c r="G162" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H162" t="s">
-        <v>811</v>
-      </c>
-      <c r="I162" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163">
+    <row r="163" spans="1:8">
+      <c r="A163">
         <v>1.64090421800457e+18</v>
       </c>
-      <c r="C163" t="s">
+      <c r="B163" t="s">
         <v>813</v>
       </c>
-      <c r="D163">
+      <c r="C163">
         <v>166776293</v>
       </c>
-      <c r="E163" t="s">
+      <c r="D163" t="s">
         <v>814</v>
       </c>
-      <c r="F163">
+      <c r="E163">
         <v>1.64090421800457e+18</v>
       </c>
+      <c r="F163" t="s">
+        <v>815</v>
+      </c>
       <c r="G163" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H163" t="s">
-        <v>816</v>
-      </c>
-      <c r="I163" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164">
+    <row r="164" spans="1:8">
+      <c r="A164">
         <v>1.640903481476411e+18</v>
       </c>
-      <c r="C164" t="s">
+      <c r="B164" t="s">
         <v>818</v>
       </c>
-      <c r="D164">
+      <c r="C164">
         <v>145850805</v>
       </c>
-      <c r="E164" t="s">
+      <c r="D164" t="s">
         <v>819</v>
       </c>
-      <c r="F164">
+      <c r="E164">
         <v>1.640903481476411e+18</v>
       </c>
+      <c r="F164" t="s">
+        <v>820</v>
+      </c>
       <c r="G164" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H164" t="s">
-        <v>821</v>
-      </c>
-      <c r="I164" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165">
+    <row r="165" spans="1:8">
+      <c r="A165">
         <v>1.64090292011896e+18</v>
       </c>
-      <c r="C165" t="s">
+      <c r="B165" t="s">
         <v>823</v>
       </c>
-      <c r="D165">
+      <c r="C165">
         <v>8.935366911090893e+17</v>
       </c>
-      <c r="E165" t="s">
+      <c r="D165" t="s">
         <v>824</v>
       </c>
-      <c r="F165">
+      <c r="E165">
         <v>1.64090292011896e+18</v>
       </c>
+      <c r="F165" t="s">
+        <v>825</v>
+      </c>
       <c r="G165" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H165" t="s">
-        <v>826</v>
-      </c>
-      <c r="I165" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166">
+    <row r="166" spans="1:8">
+      <c r="A166">
         <v>1.640901972512391e+18</v>
       </c>
-      <c r="C166" t="s">
+      <c r="B166" t="s">
         <v>828</v>
       </c>
-      <c r="D166">
+      <c r="C166">
         <v>1.169092964766773e+18</v>
       </c>
-      <c r="E166" t="s">
+      <c r="D166" t="s">
         <v>829</v>
       </c>
-      <c r="F166">
+      <c r="E166">
         <v>1.640901972512391e+18</v>
       </c>
+      <c r="F166" t="s">
+        <v>830</v>
+      </c>
       <c r="G166" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H166" t="s">
-        <v>831</v>
-      </c>
-      <c r="I166" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167">
+    <row r="167" spans="1:8">
+      <c r="A167">
         <v>1.640899045207179e+18</v>
       </c>
-      <c r="C167" t="s">
+      <c r="B167" t="s">
         <v>833</v>
       </c>
-      <c r="D167">
+      <c r="C167">
         <v>3232393554</v>
       </c>
-      <c r="E167" t="s">
+      <c r="D167" t="s">
         <v>834</v>
       </c>
-      <c r="F167">
+      <c r="E167">
         <v>1.640899045207179e+18</v>
       </c>
+      <c r="F167" t="s">
+        <v>835</v>
+      </c>
       <c r="G167" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H167" t="s">
-        <v>836</v>
-      </c>
-      <c r="I167" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168">
+    <row r="168" spans="1:8">
+      <c r="A168">
         <v>1.64082990517599e+18</v>
       </c>
-      <c r="C168" t="s">
+      <c r="B168" t="s">
         <v>838</v>
       </c>
-      <c r="D168">
+      <c r="C168">
         <v>1.292453432092107e+18</v>
       </c>
-      <c r="E168" t="s">
+      <c r="D168" t="s">
         <v>839</v>
       </c>
-      <c r="F168">
+      <c r="E168">
         <v>1.64082990517599e+18</v>
       </c>
+      <c r="F168" t="s">
+        <v>840</v>
+      </c>
       <c r="G168" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H168" t="s">
-        <v>841</v>
-      </c>
-      <c r="I168" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169">
+    <row r="169" spans="1:8">
+      <c r="A169">
         <v>1.640750556305318e+18</v>
       </c>
-      <c r="C169" t="s">
+      <c r="B169" t="s">
         <v>843</v>
       </c>
-      <c r="D169">
+      <c r="C169">
         <v>8.989564966412452e+17</v>
       </c>
-      <c r="E169" t="s">
+      <c r="D169" t="s">
         <v>844</v>
       </c>
-      <c r="F169">
+      <c r="E169">
         <v>1.640750556305318e+18</v>
       </c>
+      <c r="F169" t="s">
+        <v>845</v>
+      </c>
       <c r="G169" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H169" t="s">
-        <v>846</v>
-      </c>
-      <c r="I169" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170">
+    <row r="170" spans="1:8">
+      <c r="A170">
         <v>1.640747133753082e+18</v>
       </c>
-      <c r="C170" t="s">
+      <c r="B170" t="s">
         <v>848</v>
       </c>
-      <c r="D170">
+      <c r="C170">
         <v>1.238831198513832e+18</v>
       </c>
-      <c r="E170" t="s">
+      <c r="D170" t="s">
         <v>849</v>
       </c>
-      <c r="F170">
+      <c r="E170">
         <v>1.640747133753082e+18</v>
       </c>
+      <c r="F170" t="s">
+        <v>850</v>
+      </c>
       <c r="G170" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H170" t="s">
-        <v>851</v>
-      </c>
-      <c r="I170" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171">
+    <row r="171" spans="1:8">
+      <c r="A171">
         <v>1.626469821369156e+18</v>
       </c>
-      <c r="C171" t="s">
+      <c r="B171" t="s">
         <v>853</v>
       </c>
-      <c r="D171">
+      <c r="C171">
         <v>1.63812725434051e+18</v>
       </c>
-      <c r="E171" t="s">
+      <c r="D171" t="s">
         <v>854</v>
       </c>
-      <c r="F171">
+      <c r="E171">
         <v>1.640646517693485e+18</v>
       </c>
+      <c r="F171" t="s">
+        <v>855</v>
+      </c>
       <c r="G171" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H171" t="s">
-        <v>856</v>
-      </c>
-      <c r="I171" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172">
+    <row r="172" spans="1:8">
+      <c r="A172">
         <v>1.639795850779177e+18</v>
       </c>
-      <c r="C172" t="s">
+      <c r="B172" t="s">
         <v>858</v>
       </c>
-      <c r="D172">
+      <c r="C172">
         <v>1.455780412358214e+18</v>
       </c>
-      <c r="E172" t="s">
+      <c r="D172" t="s">
         <v>859</v>
       </c>
-      <c r="F172">
+      <c r="E172">
         <v>1.640550227823452e+18</v>
       </c>
+      <c r="F172" t="s">
+        <v>860</v>
+      </c>
       <c r="G172" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H172" t="s">
-        <v>861</v>
-      </c>
-      <c r="I172" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173">
+    <row r="173" spans="1:8">
+      <c r="A173">
         <v>1.640545155404145e+18</v>
       </c>
-      <c r="C173" t="s">
+      <c r="B173" t="s">
         <v>863</v>
       </c>
-      <c r="D173">
+      <c r="C173">
         <v>1.156108107124134e+18</v>
       </c>
-      <c r="E173" t="s">
+      <c r="D173" t="s">
         <v>864</v>
       </c>
-      <c r="F173">
+      <c r="E173">
         <v>1.640545155404145e+18</v>
       </c>
+      <c r="F173" t="s">
+        <v>865</v>
+      </c>
       <c r="G173" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H173" t="s">
-        <v>866</v>
-      </c>
-      <c r="I173" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174">
+    <row r="174" spans="1:8">
+      <c r="A174">
         <v>1.640117087309005e+18</v>
       </c>
-      <c r="C174" t="s">
+      <c r="B174" t="s">
         <v>868</v>
       </c>
-      <c r="D174">
+      <c r="C174">
         <v>9.782266508726272e+17</v>
       </c>
-      <c r="E174" t="s">
+      <c r="D174" t="s">
         <v>869</v>
       </c>
-      <c r="F174">
+      <c r="E174">
         <v>1.640529414357234e+18</v>
       </c>
+      <c r="F174" t="s">
+        <v>870</v>
+      </c>
       <c r="G174" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H174" t="s">
-        <v>871</v>
-      </c>
-      <c r="I174" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175">
+    <row r="175" spans="1:8">
+      <c r="A175">
         <v>1.640511520680604e+18</v>
       </c>
-      <c r="C175" t="s">
+      <c r="B175" t="s">
         <v>873</v>
       </c>
-      <c r="D175">
+      <c r="C175">
         <v>1.484366032185983e+18</v>
       </c>
-      <c r="E175" t="s">
+      <c r="D175" t="s">
         <v>874</v>
       </c>
-      <c r="F175">
+      <c r="E175">
         <v>1.640511520680604e+18</v>
       </c>
+      <c r="F175" t="s">
+        <v>875</v>
+      </c>
       <c r="G175" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H175" t="s">
-        <v>876</v>
-      </c>
-      <c r="I175" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176">
+    <row r="176" spans="1:8">
+      <c r="A176">
         <v>1.640470062506316e+18</v>
       </c>
-      <c r="C176" t="s">
+      <c r="B176" t="s">
         <v>878</v>
       </c>
-      <c r="D176">
+      <c r="C176">
         <v>1.255337954886791e+18</v>
       </c>
-      <c r="E176" t="s">
+      <c r="D176" t="s">
         <v>879</v>
       </c>
-      <c r="F176">
+      <c r="E176">
         <v>1.640470062506316e+18</v>
       </c>
+      <c r="F176" t="s">
+        <v>880</v>
+      </c>
       <c r="G176" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H176" t="s">
-        <v>881</v>
-      </c>
-      <c r="I176" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177">
+    <row r="177" spans="1:8">
+      <c r="A177">
         <v>1.636899985638711e+18</v>
       </c>
-      <c r="C177" t="s">
+      <c r="B177" t="s">
         <v>883</v>
       </c>
-      <c r="D177">
+      <c r="C177">
         <v>1.486400402966917e+18</v>
       </c>
-      <c r="E177" t="s">
+      <c r="D177" t="s">
         <v>884</v>
       </c>
-      <c r="F177">
+      <c r="E177">
         <v>1.640467811683402e+18</v>
       </c>
+      <c r="F177" t="s">
+        <v>885</v>
+      </c>
       <c r="G177" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H177" t="s">
-        <v>886</v>
-      </c>
-      <c r="I177" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178">
+    <row r="178" spans="1:8">
+      <c r="A178">
         <v>1.640412822726377e+18</v>
       </c>
-      <c r="C178" t="s">
+      <c r="B178" t="s">
         <v>888</v>
       </c>
-      <c r="D178">
+      <c r="C178">
         <v>1.451834250492187e+18</v>
       </c>
-      <c r="E178" t="s">
+      <c r="D178" t="s">
         <v>889</v>
       </c>
-      <c r="F178">
+      <c r="E178">
         <v>1.640412822726377e+18</v>
       </c>
+      <c r="F178" t="s">
+        <v>890</v>
+      </c>
       <c r="G178" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H178" t="s">
-        <v>891</v>
-      </c>
-      <c r="I178" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179">
+    <row r="179" spans="1:8">
+      <c r="A179">
         <v>1.64037890846063e+18</v>
       </c>
-      <c r="C179" t="s">
+      <c r="B179" t="s">
         <v>893</v>
       </c>
-      <c r="D179">
+      <c r="C179">
         <v>91661819</v>
       </c>
-      <c r="E179" t="s">
+      <c r="D179" t="s">
         <v>894</v>
       </c>
-      <c r="F179">
+      <c r="E179">
         <v>1.64037890846063e+18</v>
       </c>
+      <c r="F179" t="s">
+        <v>895</v>
+      </c>
       <c r="G179" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H179" t="s">
-        <v>896</v>
-      </c>
-      <c r="I179" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180">
+    <row r="180" spans="1:8">
+      <c r="A180">
         <v>1.640373924880871e+18</v>
       </c>
-      <c r="C180" t="s">
+      <c r="B180" t="s">
         <v>898</v>
       </c>
-      <c r="D180">
+      <c r="C180">
         <v>91661819</v>
       </c>
-      <c r="E180" t="s">
+      <c r="D180" t="s">
         <v>899</v>
       </c>
-      <c r="F180">
+      <c r="E180">
         <v>1.640378884431442e+18</v>
       </c>
+      <c r="F180" t="s">
+        <v>900</v>
+      </c>
       <c r="G180" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H180" t="s">
-        <v>901</v>
-      </c>
-      <c r="I180" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="B181">
+    <row r="181" spans="1:8">
+      <c r="A181">
         <v>1.640372080909881e+18</v>
       </c>
-      <c r="C181" t="s">
+      <c r="B181" t="s">
         <v>903</v>
       </c>
-      <c r="D181">
+      <c r="C181">
         <v>91485365</v>
       </c>
-      <c r="E181" t="s">
+      <c r="D181" t="s">
         <v>904</v>
       </c>
-      <c r="F181">
+      <c r="E181">
         <v>1.640372080909881e+18</v>
       </c>
+      <c r="F181" t="s">
+        <v>905</v>
+      </c>
       <c r="G181" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H181" t="s">
-        <v>906</v>
-      </c>
-      <c r="I181" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
-      <c r="B182">
+    <row r="182" spans="1:8">
+      <c r="A182">
         <v>1.640250449348514e+18</v>
       </c>
-      <c r="C182" t="s">
+      <c r="B182" t="s">
         <v>908</v>
       </c>
-      <c r="D182">
+      <c r="C182">
         <v>9.821941093129789e+17</v>
       </c>
-      <c r="E182" t="s">
+      <c r="D182" t="s">
         <v>909</v>
       </c>
-      <c r="F182">
+      <c r="E182">
         <v>1.640250449348514e+18</v>
       </c>
+      <c r="F182" t="s">
+        <v>910</v>
+      </c>
       <c r="G182" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H182" t="s">
-        <v>911</v>
-      </c>
-      <c r="I182" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="B183">
+    <row r="183" spans="1:8">
+      <c r="A183">
         <v>1.64016554433801e+18</v>
       </c>
-      <c r="C183" t="s">
+      <c r="B183" t="s">
         <v>913</v>
       </c>
-      <c r="D183">
+      <c r="C183">
         <v>1.495992086641865e+18</v>
       </c>
-      <c r="E183" t="s">
+      <c r="D183" t="s">
         <v>914</v>
       </c>
-      <c r="F183">
+      <c r="E183">
         <v>1.64022749312161e+18</v>
       </c>
+      <c r="F183" t="s">
+        <v>915</v>
+      </c>
       <c r="G183" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H183" t="s">
-        <v>916</v>
-      </c>
-      <c r="I183" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="B184">
+    <row r="184" spans="1:8">
+      <c r="A184">
         <v>1.640179647676826e+18</v>
       </c>
-      <c r="C184" t="s">
+      <c r="B184" t="s">
         <v>918</v>
       </c>
-      <c r="D184">
+      <c r="C184">
         <v>1.585617309439513e+18</v>
       </c>
-      <c r="E184" t="s">
+      <c r="D184" t="s">
         <v>919</v>
       </c>
-      <c r="F184">
+      <c r="E184">
         <v>1.640183312210862e+18</v>
       </c>
+      <c r="F184" t="s">
+        <v>920</v>
+      </c>
       <c r="G184" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H184" t="s">
-        <v>921</v>
-      </c>
-      <c r="I184" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-      <c r="B185">
+    <row r="185" spans="1:8">
+      <c r="A185">
         <v>1.640166594922922e+18</v>
       </c>
-      <c r="C185" t="s">
+      <c r="B185" t="s">
         <v>923</v>
       </c>
-      <c r="D185">
+      <c r="C185">
         <v>1.599761688642863e+18</v>
       </c>
-      <c r="E185" t="s">
+      <c r="D185" t="s">
         <v>924</v>
       </c>
-      <c r="F185">
+      <c r="E185">
         <v>1.640166594922922e+18</v>
       </c>
+      <c r="F185" t="s">
+        <v>925</v>
+      </c>
       <c r="G185" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H185" t="s">
-        <v>926</v>
-      </c>
-      <c r="I185" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="B186">
+    <row r="186" spans="1:8">
+      <c r="A186">
         <v>1.640142525901185e+18</v>
       </c>
-      <c r="C186" t="s">
+      <c r="B186" t="s">
         <v>928</v>
       </c>
-      <c r="D186">
+      <c r="C186">
         <v>1.22557601620403e+18</v>
       </c>
-      <c r="E186" t="s">
+      <c r="D186" t="s">
         <v>929</v>
       </c>
-      <c r="F186">
+      <c r="E186">
         <v>1.640142525901185e+18</v>
       </c>
+      <c r="F186" t="s">
+        <v>930</v>
+      </c>
       <c r="G186" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H186" t="s">
-        <v>931</v>
-      </c>
-      <c r="I186" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="B187">
+    <row r="187" spans="1:8">
+      <c r="A187">
         <v>1.640073184052654e+18</v>
       </c>
-      <c r="C187" t="s">
+      <c r="B187" t="s">
         <v>933</v>
       </c>
-      <c r="D187">
+      <c r="C187">
         <v>1.243901117697864e+18</v>
       </c>
-      <c r="E187" t="s">
+      <c r="D187" t="s">
         <v>934</v>
       </c>
-      <c r="F187">
+      <c r="E187">
         <v>1.640121171034395e+18</v>
       </c>
+      <c r="F187" t="s">
+        <v>935</v>
+      </c>
       <c r="G187" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H187" t="s">
-        <v>936</v>
-      </c>
-      <c r="I187" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188">
+    <row r="188" spans="1:8">
+      <c r="A188">
         <v>1.640045917431558e+18</v>
       </c>
-      <c r="C188" t="s">
+      <c r="B188" t="s">
         <v>938</v>
       </c>
-      <c r="D188">
+      <c r="C188">
         <v>1.234587931077157e+18</v>
       </c>
-      <c r="E188" t="s">
+      <c r="D188" t="s">
         <v>939</v>
       </c>
-      <c r="F188">
+      <c r="E188">
         <v>1.640045917431558e+18</v>
       </c>
+      <c r="F188" t="s">
+        <v>940</v>
+      </c>
       <c r="G188" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H188" t="s">
-        <v>941</v>
-      </c>
-      <c r="I188" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189">
+    <row r="189" spans="1:8">
+      <c r="A189">
         <v>1.640044341224968e+18</v>
       </c>
-      <c r="C189" t="s">
+      <c r="B189" t="s">
         <v>943</v>
       </c>
-      <c r="D189">
+      <c r="C189">
         <v>1.320980116508299e+18</v>
       </c>
-      <c r="E189" t="s">
+      <c r="D189" t="s">
         <v>944</v>
       </c>
-      <c r="F189">
+      <c r="E189">
         <v>1.640044341224968e+18</v>
       </c>
+      <c r="F189" t="s">
+        <v>945</v>
+      </c>
       <c r="G189" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H189" t="s">
-        <v>946</v>
-      </c>
-      <c r="I189" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190">
+    <row r="190" spans="1:8">
+      <c r="A190">
         <v>1.640037865596899e+18</v>
       </c>
-      <c r="C190" t="s">
+      <c r="B190" t="s">
         <v>948</v>
       </c>
-      <c r="D190">
+      <c r="C190">
         <v>9.758154682704077e+17</v>
       </c>
-      <c r="E190" t="s">
+      <c r="D190" t="s">
         <v>949</v>
       </c>
-      <c r="F190">
+      <c r="E190">
         <v>1.640037865596899e+18</v>
       </c>
+      <c r="F190" t="s">
+        <v>950</v>
+      </c>
       <c r="G190" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H190" t="s">
-        <v>951</v>
-      </c>
-      <c r="I190" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="B191">
+    <row r="191" spans="1:8">
+      <c r="A191">
         <v>1.640033714955784e+18</v>
       </c>
-      <c r="C191" t="s">
+      <c r="B191" t="s">
         <v>953</v>
       </c>
-      <c r="D191">
+      <c r="C191">
         <v>1.635910101084287e+18</v>
       </c>
-      <c r="E191" t="s">
+      <c r="D191" t="s">
         <v>954</v>
       </c>
-      <c r="F191">
+      <c r="E191">
         <v>1.640034044380586e+18</v>
       </c>
+      <c r="F191" t="s">
+        <v>955</v>
+      </c>
       <c r="G191" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H191" t="s">
-        <v>956</v>
-      </c>
-      <c r="I191" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
-      <c r="B192">
+    <row r="192" spans="1:8">
+      <c r="A192">
         <v>1.639855713983009e+18</v>
       </c>
-      <c r="C192" t="s">
+      <c r="B192" t="s">
         <v>958</v>
       </c>
-      <c r="D192">
+      <c r="C192">
         <v>2399100488</v>
       </c>
-      <c r="E192" t="s">
+      <c r="D192" t="s">
         <v>959</v>
       </c>
-      <c r="F192">
+      <c r="E192">
         <v>1.640007325246259e+18</v>
       </c>
+      <c r="F192" t="s">
+        <v>960</v>
+      </c>
       <c r="G192" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H192" t="s">
-        <v>961</v>
-      </c>
-      <c r="I192" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
-      <c r="B193">
+    <row r="193" spans="1:8">
+      <c r="A193">
         <v>1.639855713983009e+18</v>
       </c>
-      <c r="C193" t="s">
+      <c r="B193" t="s">
         <v>963</v>
       </c>
-      <c r="D193">
+      <c r="C193">
         <v>1.626227520134877e+18</v>
       </c>
-      <c r="E193" t="s">
+      <c r="D193" t="s">
         <v>964</v>
       </c>
-      <c r="F193">
+      <c r="E193">
         <v>1.640005546525995e+18</v>
       </c>
+      <c r="F193" t="s">
+        <v>965</v>
+      </c>
       <c r="G193" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H193" t="s">
-        <v>966</v>
-      </c>
-      <c r="I193" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
-      <c r="A194" s="1">
-        <v>192</v>
-      </c>
-      <c r="B194">
+    <row r="194" spans="1:8">
+      <c r="A194">
         <v>1.639560847973548e+18</v>
       </c>
-      <c r="C194" t="s">
+      <c r="B194" t="s">
         <v>968</v>
       </c>
-      <c r="D194">
+      <c r="C194">
         <v>2956982773</v>
       </c>
-      <c r="E194" t="s">
+      <c r="D194" t="s">
         <v>969</v>
       </c>
-      <c r="F194">
+      <c r="E194">
         <v>1.639963188534956e+18</v>
       </c>
+      <c r="F194" t="s">
+        <v>970</v>
+      </c>
       <c r="G194" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H194" t="s">
-        <v>971</v>
-      </c>
-      <c r="I194" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
-      <c r="A195" s="1">
-        <v>193</v>
-      </c>
-      <c r="B195">
+    <row r="195" spans="1:8">
+      <c r="A195">
         <v>1.639962885463106e+18</v>
       </c>
-      <c r="C195" t="s">
+      <c r="B195" t="s">
         <v>973</v>
       </c>
-      <c r="D195">
+      <c r="C195">
         <v>1.441316099862122e+18</v>
       </c>
-      <c r="E195" t="s">
+      <c r="D195" t="s">
         <v>974</v>
       </c>
-      <c r="F195">
+      <c r="E195">
         <v>1.639962885463106e+18</v>
       </c>
+      <c r="F195" t="s">
+        <v>975</v>
+      </c>
       <c r="G195" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H195" t="s">
-        <v>976</v>
-      </c>
-      <c r="I195" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
-      <c r="A196" s="1">
-        <v>194</v>
-      </c>
-      <c r="B196">
+    <row r="196" spans="1:8">
+      <c r="A196">
         <v>1.639795974825734e+18</v>
       </c>
-      <c r="C196" t="s">
+      <c r="B196" t="s">
         <v>978</v>
       </c>
-      <c r="D196">
+      <c r="C196">
         <v>2956982773</v>
       </c>
-      <c r="E196" t="s">
+      <c r="D196" t="s">
         <v>979</v>
       </c>
-      <c r="F196">
+      <c r="E196">
         <v>1.63994851947681e+18</v>
       </c>
+      <c r="F196" t="s">
+        <v>980</v>
+      </c>
       <c r="G196" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H196" t="s">
-        <v>981</v>
-      </c>
-      <c r="I196" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
-      <c r="B197">
+    <row r="197" spans="1:8">
+      <c r="A197">
         <v>1.639893957911138e+18</v>
       </c>
-      <c r="C197" t="s">
+      <c r="B197" t="s">
         <v>983</v>
       </c>
-      <c r="D197">
+      <c r="C197">
         <v>2956982773</v>
       </c>
-      <c r="E197" t="s">
+      <c r="D197" t="s">
         <v>984</v>
       </c>
-      <c r="F197">
+      <c r="E197">
         <v>1.639945354085913e+18</v>
       </c>
+      <c r="F197" t="s">
+        <v>985</v>
+      </c>
       <c r="G197" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H197" t="s">
-        <v>986</v>
-      </c>
-      <c r="I197" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
-      <c r="A198" s="1">
-        <v>196</v>
-      </c>
-      <c r="B198">
+    <row r="198" spans="1:8">
+      <c r="A198">
         <v>1.639916576852853e+18</v>
       </c>
-      <c r="C198" t="s">
+      <c r="B198" t="s">
         <v>988</v>
       </c>
-      <c r="D198">
+      <c r="C198">
         <v>875525822</v>
       </c>
-      <c r="E198" t="s">
+      <c r="D198" t="s">
         <v>989</v>
       </c>
-      <c r="F198">
+      <c r="E198">
         <v>1.639916576852853e+18</v>
       </c>
+      <c r="F198" t="s">
+        <v>990</v>
+      </c>
       <c r="G198" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H198" t="s">
-        <v>991</v>
-      </c>
-      <c r="I198" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199">
+    <row r="199" spans="1:8">
+      <c r="A199">
         <v>1.639747879643349e+18</v>
       </c>
-      <c r="C199" t="s">
+      <c r="B199" t="s">
         <v>993</v>
       </c>
-      <c r="D199">
+      <c r="C199">
         <v>9.44077875665236e+17</v>
       </c>
-      <c r="E199" t="s">
+      <c r="D199" t="s">
         <v>994</v>
       </c>
-      <c r="F199">
+      <c r="E199">
         <v>1.639859932857266e+18</v>
       </c>
+      <c r="F199" t="s">
+        <v>995</v>
+      </c>
       <c r="G199" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H199" t="s">
-        <v>996</v>
-      </c>
-      <c r="I199" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200">
+    <row r="200" spans="1:8">
+      <c r="A200">
         <v>1.639847190335222e+18</v>
       </c>
-      <c r="C200" t="s">
+      <c r="B200" t="s">
         <v>998</v>
       </c>
-      <c r="D200">
+      <c r="C200">
         <v>1.21375927421766e+18</v>
       </c>
-      <c r="E200" t="s">
+      <c r="D200" t="s">
         <v>999</v>
       </c>
-      <c r="F200">
+      <c r="E200">
         <v>1.639847190335222e+18</v>
       </c>
+      <c r="F200" t="s">
+        <v>1000</v>
+      </c>
       <c r="G200" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H200" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I200" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="B201">
+    <row r="201" spans="1:8">
+      <c r="A201">
         <v>1.639841603945628e+18</v>
       </c>
-      <c r="C201" t="s">
+      <c r="B201" t="s">
         <v>1003</v>
       </c>
-      <c r="D201">
+      <c r="C201">
         <v>1.071980496031179e+18</v>
       </c>
-      <c r="E201" t="s">
+      <c r="D201" t="s">
         <v>1004</v>
       </c>
-      <c r="F201">
+      <c r="E201">
         <v>1.639845037759676e+18</v>
       </c>
+      <c r="F201" t="s">
+        <v>1005</v>
+      </c>
       <c r="G201" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H201" t="s">
-        <v>1006</v>
-      </c>
-      <c r="I201" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="B202">
+    <row r="202" spans="1:8">
+      <c r="A202">
         <v>1.639545253026992e+18</v>
       </c>
-      <c r="C202" t="s">
+      <c r="B202" t="s">
         <v>1008</v>
       </c>
-      <c r="D202">
+      <c r="C202">
         <v>1.577686495745298e+18</v>
       </c>
-      <c r="E202" t="s">
+      <c r="D202" t="s">
         <v>1009</v>
       </c>
-      <c r="F202">
+      <c r="E202">
         <v>1.639815196959994e+18</v>
       </c>
+      <c r="F202" t="s">
+        <v>1010</v>
+      </c>
       <c r="G202" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="H202" t="s">
-        <v>1011</v>
-      </c>
-      <c r="I202" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
-      <c r="B203">
+    <row r="203" spans="1:8">
+      <c r="A203">
         <v>1.639230460017484e+18</v>
       </c>
-      <c r="C203" t="s">
+      <c r="B203" t="s">
         <v>1013</v>
       </c>
-      <c r="D203">
+      <c r="C203">
         <v>1.303558222847017e+18</v>
       </c>
-      <c r="E203" t="s">
+      <c r="D203" t="s">
         <v>1014</v>
       </c>
-      <c r="F203">
+      <c r="E203">
         <v>1.63980398131569e+18</v>
       </c>
+      <c r="F203" t="s">
+        <v>1015</v>
+      </c>
       <c r="G203" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H203" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I203" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204">
+    <row r="204" spans="1:8">
+      <c r="A204">
         <v>1.639230460017484e+18</v>
       </c>
-      <c r="C204" t="s">
+      <c r="B204" t="s">
         <v>1018</v>
       </c>
-      <c r="D204">
+      <c r="C204">
         <v>1.303558222847017e+18</v>
       </c>
-      <c r="E204" t="s">
+      <c r="D204" t="s">
         <v>1019</v>
       </c>
-      <c r="F204">
+      <c r="E204">
         <v>1.639802929703014e+18</v>
       </c>
+      <c r="F204" t="s">
+        <v>1020</v>
+      </c>
       <c r="G204" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="H204" t="s">
-        <v>1021</v>
-      </c>
-      <c r="I204" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205">
+    <row r="205" spans="1:8">
+      <c r="A205">
         <v>1.639672390257893e+18</v>
       </c>
-      <c r="C205" t="s">
+      <c r="B205" t="s">
         <v>1023</v>
       </c>
-      <c r="D205">
+      <c r="C205">
         <v>1.549084648202211e+18</v>
       </c>
-      <c r="E205" t="s">
+      <c r="D205" t="s">
         <v>1024</v>
       </c>
-      <c r="F205">
+      <c r="E205">
         <v>1.639672390257893e+18</v>
       </c>
+      <c r="F205" t="s">
+        <v>1025</v>
+      </c>
       <c r="G205" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H205" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I205" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206">
+    <row r="206" spans="1:8">
+      <c r="A206">
         <v>1.639457684557795e+18</v>
       </c>
-      <c r="C206" t="s">
+      <c r="B206" t="s">
         <v>1028</v>
       </c>
-      <c r="D206">
+      <c r="C206">
         <v>1.487106878895239e+18</v>
       </c>
-      <c r="E206" t="s">
+      <c r="D206" t="s">
         <v>1029</v>
       </c>
-      <c r="F206">
+      <c r="E206">
         <v>1.639653769573958e+18</v>
       </c>
+      <c r="F206" t="s">
+        <v>1030</v>
+      </c>
       <c r="G206" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H206" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I206" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207">
+    <row r="207" spans="1:8">
+      <c r="A207">
         <v>1.639635475496587e+18</v>
       </c>
-      <c r="C207" t="s">
+      <c r="B207" t="s">
         <v>1033</v>
       </c>
-      <c r="D207">
+      <c r="C207">
         <v>1.470808401685127e+18</v>
       </c>
-      <c r="E207" t="s">
+      <c r="D207" t="s">
         <v>1034</v>
       </c>
-      <c r="F207">
+      <c r="E207">
         <v>1.639635528822784e+18</v>
       </c>
+      <c r="F207" t="s">
+        <v>1035</v>
+      </c>
       <c r="G207" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H207" t="s">
-        <v>1036</v>
-      </c>
-      <c r="I207" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208">
+    <row r="208" spans="1:8">
+      <c r="A208">
         <v>1.639600203803271e+18</v>
       </c>
-      <c r="C208" t="s">
+      <c r="B208" t="s">
         <v>1038</v>
       </c>
-      <c r="D208">
+      <c r="C208">
         <v>1.638333226908533e+18</v>
       </c>
-      <c r="E208" t="s">
+      <c r="D208" t="s">
         <v>1039</v>
       </c>
-      <c r="F208">
+      <c r="E208">
         <v>1.639600203803271e+18</v>
       </c>
+      <c r="F208" t="s">
+        <v>1040</v>
+      </c>
       <c r="G208" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H208" t="s">
-        <v>1041</v>
-      </c>
-      <c r="I208" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
-      <c r="B209">
+    <row r="209" spans="1:8">
+      <c r="A209">
         <v>1.639596047860392e+18</v>
       </c>
-      <c r="C209" t="s">
+      <c r="B209" t="s">
         <v>1043</v>
       </c>
-      <c r="D209">
+      <c r="C209">
         <v>1.638330228874568e+18</v>
       </c>
-      <c r="E209" t="s">
+      <c r="D209" t="s">
         <v>1044</v>
       </c>
-      <c r="F209">
+      <c r="E209">
         <v>1.639596047860392e+18</v>
       </c>
+      <c r="F209" t="s">
+        <v>1045</v>
+      </c>
       <c r="G209" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H209" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I209" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="B210">
+    <row r="210" spans="1:8">
+      <c r="A210">
         <v>1.639592521532871e+18</v>
       </c>
-      <c r="C210" t="s">
+      <c r="B210" t="s">
         <v>1048</v>
       </c>
-      <c r="D210">
+      <c r="C210">
         <v>1.63818945867903e+18</v>
       </c>
-      <c r="E210" t="s">
+      <c r="D210" t="s">
         <v>1049</v>
       </c>
-      <c r="F210">
+      <c r="E210">
         <v>1.639592521532871e+18</v>
       </c>
+      <c r="F210" t="s">
+        <v>1050</v>
+      </c>
       <c r="G210" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H210" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I210" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
-      <c r="B211">
+    <row r="211" spans="1:8">
+      <c r="A211">
         <v>1.639586892869157e+18</v>
       </c>
-      <c r="C211" t="s">
+      <c r="B211" t="s">
         <v>1053</v>
       </c>
-      <c r="D211">
+      <c r="C211">
         <v>1.526350034404397e+18</v>
       </c>
-      <c r="E211" t="s">
+      <c r="D211" t="s">
         <v>1054</v>
       </c>
-      <c r="F211">
+      <c r="E211">
         <v>1.639586892869157e+18</v>
       </c>
+      <c r="F211" t="s">
+        <v>1055</v>
+      </c>
       <c r="G211" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H211" t="s">
-        <v>1056</v>
-      </c>
-      <c r="I211" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="B212">
+    <row r="212" spans="1:8">
+      <c r="A212">
         <v>1.639523452272124e+18</v>
       </c>
-      <c r="C212" t="s">
+      <c r="B212" t="s">
         <v>1058</v>
       </c>
-      <c r="D212">
+      <c r="C212">
         <v>1.451344116588057e+18</v>
       </c>
-      <c r="E212" t="s">
+      <c r="D212" t="s">
         <v>1059</v>
       </c>
-      <c r="F212">
+      <c r="E212">
         <v>1.639523452272124e+18</v>
       </c>
+      <c r="F212" t="s">
+        <v>1060</v>
+      </c>
       <c r="G212" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H212" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I212" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
-      <c r="B213">
+    <row r="213" spans="1:8">
+      <c r="A213">
         <v>1.626469821369156e+18</v>
       </c>
-      <c r="C213" t="s">
+      <c r="B213" t="s">
         <v>1063</v>
       </c>
-      <c r="D213">
+      <c r="C213">
         <v>1.634069383873196e+18</v>
       </c>
-      <c r="E213" t="s">
+      <c r="D213" t="s">
         <v>1064</v>
       </c>
-      <c r="F213">
+      <c r="E213">
         <v>1.639457450322719e+18</v>
       </c>
+      <c r="F213" t="s">
+        <v>1065</v>
+      </c>
       <c r="G213" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H213" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I213" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214">
+    <row r="214" spans="1:8">
+      <c r="A214">
         <v>1.639452963952562e+18</v>
       </c>
-      <c r="C214" t="s">
+      <c r="B214" t="s">
         <v>1068</v>
       </c>
-      <c r="D214">
+      <c r="C214">
         <v>1.461847447630668e+18</v>
       </c>
-      <c r="E214" t="s">
+      <c r="D214" t="s">
         <v>1069</v>
       </c>
-      <c r="F214">
+      <c r="E214">
         <v>1.639452963952562e+18</v>
       </c>
+      <c r="F214" t="s">
+        <v>1070</v>
+      </c>
       <c r="G214" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="H214" t="s">
-        <v>1071</v>
-      </c>
-      <c r="I214" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215">
+    <row r="215" spans="1:8">
+      <c r="A215">
         <v>1.639211288072172e+18</v>
       </c>
-      <c r="C215" t="s">
+      <c r="B215" t="s">
         <v>1073</v>
       </c>
-      <c r="D215">
+      <c r="C215">
         <v>26789945</v>
       </c>
-      <c r="E215" t="s">
+      <c r="D215" t="s">
         <v>1074</v>
       </c>
-      <c r="F215">
+      <c r="E215">
         <v>1.639351075680518e+18</v>
       </c>
+      <c r="F215" t="s">
+        <v>1075</v>
+      </c>
       <c r="G215" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H215" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I215" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="B216">
+    <row r="216" spans="1:8">
+      <c r="A216">
         <v>1.639332597166903e+18</v>
       </c>
-      <c r="C216" t="s">
+      <c r="B216" t="s">
         <v>1078</v>
       </c>
-      <c r="D216">
+      <c r="C216">
         <v>1.475729470585668e+18</v>
       </c>
-      <c r="E216" t="s">
+      <c r="D216" t="s">
         <v>1079</v>
       </c>
-      <c r="F216">
+      <c r="E216">
         <v>1.639332597166903e+18</v>
       </c>
+      <c r="F216" t="s">
+        <v>1080</v>
+      </c>
       <c r="G216" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H216" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I216" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
-      <c r="A217" s="1">
-        <v>215</v>
-      </c>
-      <c r="B217">
+    <row r="217" spans="1:8">
+      <c r="A217">
         <v>1.639328245358428e+18</v>
       </c>
-      <c r="C217" t="s">
+      <c r="B217" t="s">
         <v>1083</v>
       </c>
-      <c r="D217">
+      <c r="C217">
         <v>1.262311550116696e+18</v>
       </c>
-      <c r="E217" t="s">
+      <c r="D217" t="s">
         <v>1084</v>
       </c>
-      <c r="F217">
+      <c r="E217">
         <v>1.639329147033108e+18</v>
       </c>
+      <c r="F217" t="s">
+        <v>1085</v>
+      </c>
       <c r="G217" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H217" t="s">
-        <v>1086</v>
-      </c>
-      <c r="I217" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
-      <c r="B218">
+    <row r="218" spans="1:8">
+      <c r="A218">
         <v>1.639298918591894e+18</v>
       </c>
-      <c r="C218" t="s">
+      <c r="B218" t="s">
         <v>1088</v>
       </c>
-      <c r="D218">
+      <c r="C218">
         <v>1.482593372044943e+18</v>
       </c>
-      <c r="E218" t="s">
+      <c r="D218" t="s">
         <v>1089</v>
       </c>
-      <c r="F218">
+      <c r="E218">
         <v>1.639298918591894e+18</v>
       </c>
+      <c r="F218" t="s">
+        <v>1090</v>
+      </c>
       <c r="G218" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H218" t="s">
-        <v>1091</v>
-      </c>
-      <c r="I218" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="B219">
+    <row r="219" spans="1:8">
+      <c r="A219">
         <v>1.639275836921577e+18</v>
       </c>
-      <c r="C219" t="s">
+      <c r="B219" t="s">
         <v>1093</v>
       </c>
-      <c r="D219">
+      <c r="C219">
         <v>1.399283286078222e+18</v>
       </c>
-      <c r="E219" t="s">
+      <c r="D219" t="s">
         <v>1094</v>
       </c>
-      <c r="F219">
+      <c r="E219">
         <v>1.639275836921577e+18</v>
       </c>
+      <c r="F219" t="s">
+        <v>1095</v>
+      </c>
       <c r="G219" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H219" t="s">
-        <v>1096</v>
-      </c>
-      <c r="I219" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220">
+    <row r="220" spans="1:8">
+      <c r="A220">
         <v>1.639117854154031e+18</v>
       </c>
-      <c r="C220" t="s">
+      <c r="B220" t="s">
         <v>1098</v>
       </c>
-      <c r="D220">
+      <c r="C220">
         <v>1.352685041214624e+18</v>
       </c>
-      <c r="E220" t="s">
+      <c r="D220" t="s">
         <v>1099</v>
       </c>
-      <c r="F220">
+      <c r="E220">
         <v>1.63926613251847e+18</v>
       </c>
+      <c r="F220" t="s">
+        <v>1100</v>
+      </c>
       <c r="G220" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H220" t="s">
-        <v>1101</v>
-      </c>
-      <c r="I220" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221">
+    <row r="221" spans="1:8">
+      <c r="A221">
         <v>1.639263879388594e+18</v>
       </c>
-      <c r="C221" t="s">
+      <c r="B221" t="s">
         <v>1103</v>
       </c>
-      <c r="D221">
+      <c r="C221">
         <v>1.053607129041359e+18</v>
       </c>
-      <c r="E221" t="s">
+      <c r="D221" t="s">
         <v>1104</v>
       </c>
-      <c r="F221">
+      <c r="E221">
         <v>1.639263879388594e+18</v>
       </c>
+      <c r="F221" t="s">
+        <v>1105</v>
+      </c>
       <c r="G221" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H221" t="s">
-        <v>1106</v>
-      </c>
-      <c r="I221" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="B222">
+    <row r="222" spans="1:8">
+      <c r="A222">
         <v>1.639262509118145e+18</v>
       </c>
-      <c r="C222" t="s">
+      <c r="B222" t="s">
         <v>1108</v>
       </c>
-      <c r="D222">
+      <c r="C222">
         <v>3539322506</v>
       </c>
-      <c r="E222" t="s">
+      <c r="D222" t="s">
         <v>1109</v>
       </c>
-      <c r="F222">
+      <c r="E222">
         <v>1.639262509118145e+18</v>
       </c>
+      <c r="F222" t="s">
+        <v>1110</v>
+      </c>
       <c r="G222" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H222" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I222" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
-      <c r="A223" s="1">
-        <v>221</v>
-      </c>
-      <c r="B223">
+    <row r="223" spans="1:8">
+      <c r="A223">
         <v>1.639261803950789e+18</v>
       </c>
-      <c r="C223" t="s">
+      <c r="B223" t="s">
         <v>1113</v>
       </c>
-      <c r="D223">
+      <c r="C223">
         <v>1.000760781615518e+18</v>
       </c>
-      <c r="E223" t="s">
+      <c r="D223" t="s">
         <v>1114</v>
       </c>
-      <c r="F223">
+      <c r="E223">
         <v>1.639261803950789e+18</v>
       </c>
+      <c r="F223" t="s">
+        <v>1115</v>
+      </c>
       <c r="G223" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H223" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I223" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
-      <c r="A224" s="1">
-        <v>222</v>
-      </c>
-      <c r="B224">
+    <row r="224" spans="1:8">
+      <c r="A224">
         <v>1.639261546487398e+18</v>
       </c>
-      <c r="C224" t="s">
+      <c r="B224" t="s">
         <v>1118</v>
       </c>
-      <c r="D224">
+      <c r="C224">
         <v>1.565821059441766e+18</v>
       </c>
-      <c r="E224" t="s">
+      <c r="D224" t="s">
         <v>1119</v>
       </c>
-      <c r="F224">
+      <c r="E224">
         <v>1.639261546487398e+18</v>
       </c>
+      <c r="F224" t="s">
+        <v>1120</v>
+      </c>
       <c r="G224" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H224" t="s">
-        <v>1121</v>
-      </c>
-      <c r="I224" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
-      <c r="B225">
+    <row r="225" spans="1:8">
+      <c r="A225">
         <v>1.639258030217855e+18</v>
       </c>
-      <c r="C225" t="s">
+      <c r="B225" t="s">
         <v>1123</v>
       </c>
-      <c r="D225">
+      <c r="C225">
         <v>1.631378318707823e+18</v>
       </c>
-      <c r="E225" t="s">
+      <c r="D225" t="s">
         <v>1124</v>
       </c>
-      <c r="F225">
+      <c r="E225">
         <v>1.639258030217855e+18</v>
       </c>
+      <c r="F225" t="s">
+        <v>1125</v>
+      </c>
       <c r="G225" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H225" t="s">
-        <v>1126</v>
-      </c>
-      <c r="I225" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
-      <c r="A226" s="1">
-        <v>224</v>
-      </c>
-      <c r="B226">
+    <row r="226" spans="1:8">
+      <c r="A226">
         <v>1.63923579746245e+18</v>
       </c>
-      <c r="C226" t="s">
+      <c r="B226" t="s">
         <v>1128</v>
       </c>
-      <c r="D226">
+      <c r="C226">
         <v>1.467066372832195e+18</v>
       </c>
-      <c r="E226" t="s">
+      <c r="D226" t="s">
         <v>1129</v>
       </c>
-      <c r="F226">
+      <c r="E226">
         <v>1.63923579746245e+18</v>
       </c>
+      <c r="F226" t="s">
+        <v>1130</v>
+      </c>
       <c r="G226" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H226" t="s">
-        <v>1131</v>
-      </c>
-      <c r="I226" t="s">
         <v>1132</v>
       </c>
     </row>
